--- a/data/paired_davis_cup.xlsx
+++ b/data/paired_davis_cup.xlsx
@@ -1070,11 +1070,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2">
-        <v>2014</v>
       </c>
       <c r="E2" t="s">
         <v>171</v>
@@ -1084,11 +1084,11 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2014</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2014</v>
       </c>
       <c r="E3" t="s">
         <v>172</v>
@@ -1098,14 +1098,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4">
-        <v>2014</v>
       </c>
       <c r="E4" t="s">
         <v>171</v>
@@ -1118,11 +1118,11 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5">
-        <v>2014</v>
       </c>
       <c r="E5" t="s">
         <v>173</v>
@@ -1132,11 +1132,11 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2014</v>
       </c>
       <c r="E6" t="s">
         <v>172</v>
@@ -1146,11 +1146,11 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
       </c>
       <c r="E7" t="s">
         <v>174</v>
@@ -1160,11 +1160,11 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>2014</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2014</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
@@ -1174,14 +1174,14 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>156</v>
-      </c>
-      <c r="D9">
-        <v>2014</v>
       </c>
       <c r="E9" t="s">
         <v>175</v>
@@ -1194,11 +1194,11 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2014</v>
       </c>
       <c r="E10" t="s">
         <v>175</v>
@@ -1208,11 +1208,11 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11">
-        <v>2014</v>
       </c>
       <c r="E11" t="s">
         <v>174</v>
@@ -1222,11 +1222,11 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>2014</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
       </c>
       <c r="E12" t="s">
         <v>102</v>
@@ -1236,11 +1236,11 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>2014</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="D13">
-        <v>2014</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -1250,14 +1250,14 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-      <c r="D14">
-        <v>2014</v>
       </c>
       <c r="E14" t="s">
         <v>176</v>
@@ -1270,11 +1270,11 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15">
-        <v>2014</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
@@ -1284,11 +1284,11 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16">
-        <v>2014</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -1298,11 +1298,11 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>2014</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-      <c r="D17">
-        <v>2014</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
@@ -1312,14 +1312,14 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>2014</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="D18">
-        <v>2014</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -1332,11 +1332,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>2014</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="D19">
-        <v>2014</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -1346,11 +1346,11 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
         <v>25</v>
-      </c>
-      <c r="D20">
-        <v>2014</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -1360,11 +1360,11 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>2014</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21">
-        <v>2014</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -1374,11 +1374,11 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
-      </c>
-      <c r="D22">
-        <v>2014</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
@@ -1388,14 +1388,14 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>2014</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>157</v>
-      </c>
-      <c r="D23">
-        <v>2014</v>
       </c>
       <c r="E23" t="s">
         <v>178</v>
@@ -1408,11 +1408,11 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>2014</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24">
-        <v>2014</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
@@ -1422,11 +1422,11 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="D25">
-        <v>2014</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -1436,11 +1436,11 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>2014</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
-      </c>
-      <c r="D26">
-        <v>2014</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -1450,14 +1450,14 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>2014</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>158</v>
-      </c>
-      <c r="D27">
-        <v>2014</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
@@ -1470,11 +1470,11 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>2014</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
-      </c>
-      <c r="D28">
-        <v>2014</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -1484,11 +1484,11 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>2014</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
-      </c>
-      <c r="D29">
-        <v>2014</v>
       </c>
       <c r="E29" t="s">
         <v>63</v>
@@ -1498,11 +1498,11 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
-      </c>
-      <c r="D30">
-        <v>2014</v>
       </c>
       <c r="E30" t="s">
         <v>65</v>
@@ -1512,14 +1512,14 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>32</v>
-      </c>
-      <c r="D31">
-        <v>2014</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
@@ -1532,11 +1532,11 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-      <c r="D32">
-        <v>2014</v>
       </c>
       <c r="E32" t="s">
         <v>65</v>
@@ -1546,11 +1546,11 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>2014</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
-      </c>
-      <c r="D33">
-        <v>2014</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
@@ -1560,11 +1560,11 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>2014</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
-      </c>
-      <c r="D34">
-        <v>2014</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
@@ -1574,11 +1574,11 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
-      </c>
-      <c r="D35">
-        <v>2014</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
@@ -1588,14 +1588,14 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>2014</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>107</v>
-      </c>
-      <c r="D36">
-        <v>2014</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
@@ -1608,11 +1608,11 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>2014</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
-      </c>
-      <c r="D37">
-        <v>2014</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
@@ -1622,11 +1622,11 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>2014</v>
+      </c>
+      <c r="C38" t="s">
         <v>37</v>
-      </c>
-      <c r="D38">
-        <v>2014</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
@@ -1636,11 +1636,11 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>2014</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
-      </c>
-      <c r="D39">
-        <v>2014</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -1650,11 +1650,11 @@
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40" t="s">
         <v>39</v>
-      </c>
-      <c r="D40">
-        <v>2014</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -1664,14 +1664,14 @@
       <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>2014</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>156</v>
-      </c>
-      <c r="D41">
-        <v>2014</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1684,11 +1684,11 @@
       <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>2014</v>
+      </c>
+      <c r="C42" t="s">
         <v>15</v>
-      </c>
-      <c r="D42">
-        <v>2014</v>
       </c>
       <c r="E42" t="s">
         <v>156</v>
@@ -1698,11 +1698,11 @@
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>2014</v>
+      </c>
+      <c r="C43" t="s">
         <v>39</v>
-      </c>
-      <c r="D43">
-        <v>2014</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -1712,11 +1712,11 @@
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>2014</v>
+      </c>
+      <c r="C44" t="s">
         <v>24</v>
-      </c>
-      <c r="D44">
-        <v>2014</v>
       </c>
       <c r="E44" t="s">
         <v>179</v>
@@ -1726,11 +1726,11 @@
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45" t="s">
         <v>23</v>
-      </c>
-      <c r="D45">
-        <v>2014</v>
       </c>
       <c r="E45" t="s">
         <v>180</v>
@@ -1740,14 +1740,14 @@
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
         <v>24</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>159</v>
-      </c>
-      <c r="D46">
-        <v>2014</v>
       </c>
       <c r="E46" t="s">
         <v>160</v>
@@ -1760,11 +1760,11 @@
       <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>2014</v>
+      </c>
+      <c r="C47" t="s">
         <v>23</v>
-      </c>
-      <c r="D47">
-        <v>2014</v>
       </c>
       <c r="E47" t="s">
         <v>179</v>
@@ -1774,11 +1774,11 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>2014</v>
+      </c>
+      <c r="C48" t="s">
         <v>25</v>
-      </c>
-      <c r="D48">
-        <v>2014</v>
       </c>
       <c r="E48" t="s">
         <v>180</v>
@@ -1788,11 +1788,11 @@
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>2014</v>
+      </c>
+      <c r="C49" t="s">
         <v>40</v>
-      </c>
-      <c r="D49">
-        <v>2014</v>
       </c>
       <c r="E49" t="s">
         <v>50</v>
@@ -1802,11 +1802,11 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>2014</v>
+      </c>
+      <c r="C50" t="s">
         <v>41</v>
-      </c>
-      <c r="D50">
-        <v>2014</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
@@ -1816,14 +1816,14 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>2014</v>
+      </c>
+      <c r="C51" t="s">
         <v>42</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>40</v>
-      </c>
-      <c r="D51">
-        <v>2014</v>
       </c>
       <c r="E51" t="s">
         <v>178</v>
@@ -1836,11 +1836,11 @@
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>2014</v>
+      </c>
+      <c r="C52" t="s">
         <v>40</v>
-      </c>
-      <c r="D52">
-        <v>2014</v>
       </c>
       <c r="E52" t="s">
         <v>49</v>
@@ -1850,11 +1850,11 @@
       <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>2014</v>
+      </c>
+      <c r="C53" t="s">
         <v>41</v>
-      </c>
-      <c r="D53">
-        <v>2014</v>
       </c>
       <c r="E53" t="s">
         <v>50</v>
@@ -1864,11 +1864,11 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>2014</v>
+      </c>
+      <c r="C54" t="s">
         <v>43</v>
-      </c>
-      <c r="D54">
-        <v>2014</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
@@ -1878,11 +1878,11 @@
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>2014</v>
+      </c>
+      <c r="C55" t="s">
         <v>44</v>
-      </c>
-      <c r="D55">
-        <v>2014</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
@@ -1892,14 +1892,14 @@
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>2014</v>
+      </c>
+      <c r="C56" t="s">
         <v>44</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>43</v>
-      </c>
-      <c r="D56">
-        <v>2014</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -1912,11 +1912,11 @@
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>2014</v>
+      </c>
+      <c r="C57" t="s">
         <v>43</v>
-      </c>
-      <c r="D57">
-        <v>2014</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
@@ -1926,11 +1926,11 @@
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>2014</v>
+      </c>
+      <c r="C58" t="s">
         <v>44</v>
-      </c>
-      <c r="D58">
-        <v>2014</v>
       </c>
       <c r="E58" t="s">
         <v>33</v>
@@ -1940,11 +1940,11 @@
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>2014</v>
+      </c>
+      <c r="C59" t="s">
         <v>44</v>
-      </c>
-      <c r="D59">
-        <v>2014</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
@@ -1954,11 +1954,11 @@
       <c r="A60" t="s">
         <v>8</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>2014</v>
+      </c>
+      <c r="C60" t="s">
         <v>43</v>
-      </c>
-      <c r="D60">
-        <v>2014</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
@@ -1968,14 +1968,14 @@
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>2014</v>
+      </c>
+      <c r="C61" t="s">
         <v>45</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>43</v>
-      </c>
-      <c r="D61">
-        <v>2014</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
@@ -1988,11 +1988,11 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>2014</v>
+      </c>
+      <c r="C62" t="s">
         <v>44</v>
-      </c>
-      <c r="D62">
-        <v>2014</v>
       </c>
       <c r="E62" t="s">
         <v>40</v>
@@ -2002,11 +2002,11 @@
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>2014</v>
+      </c>
+      <c r="C63" t="s">
         <v>46</v>
-      </c>
-      <c r="D63">
-        <v>2014</v>
       </c>
       <c r="E63" t="s">
         <v>41</v>
@@ -2016,11 +2016,11 @@
       <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>2014</v>
+      </c>
+      <c r="C64" t="s">
         <v>23</v>
-      </c>
-      <c r="D64">
-        <v>2014</v>
       </c>
       <c r="E64" t="s">
         <v>43</v>
@@ -2030,11 +2030,11 @@
       <c r="A65" t="s">
         <v>9</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>2014</v>
+      </c>
+      <c r="C65" t="s">
         <v>25</v>
-      </c>
-      <c r="D65">
-        <v>2014</v>
       </c>
       <c r="E65" t="s">
         <v>44</v>
@@ -2044,14 +2044,14 @@
       <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="s">
         <v>24</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>22</v>
-      </c>
-      <c r="D66">
-        <v>2014</v>
       </c>
       <c r="E66" t="s">
         <v>44</v>
@@ -2064,11 +2064,11 @@
       <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>2014</v>
+      </c>
+      <c r="C67" t="s">
         <v>22</v>
-      </c>
-      <c r="D67">
-        <v>2014</v>
       </c>
       <c r="E67" t="s">
         <v>44</v>
@@ -2078,11 +2078,11 @@
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>2015</v>
+      </c>
+      <c r="C68" t="s">
         <v>47</v>
-      </c>
-      <c r="D68">
-        <v>2015</v>
       </c>
       <c r="E68" t="s">
         <v>78</v>
@@ -2092,11 +2092,11 @@
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>2015</v>
+      </c>
+      <c r="C69" t="s">
         <v>18</v>
-      </c>
-      <c r="D69">
-        <v>2015</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -2106,14 +2106,14 @@
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>2015</v>
+      </c>
+      <c r="C70" t="s">
         <v>48</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>160</v>
-      </c>
-      <c r="D70">
-        <v>2015</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
@@ -2126,11 +2126,11 @@
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>2015</v>
+      </c>
+      <c r="C71" t="s">
         <v>18</v>
-      </c>
-      <c r="D71">
-        <v>2015</v>
       </c>
       <c r="E71" t="s">
         <v>78</v>
@@ -2140,11 +2140,11 @@
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>2015</v>
+      </c>
+      <c r="C72" t="s">
         <v>47</v>
-      </c>
-      <c r="D72">
-        <v>2015</v>
       </c>
       <c r="E72" t="s">
         <v>97</v>
@@ -2154,11 +2154,11 @@
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>2015</v>
+      </c>
+      <c r="C73" t="s">
         <v>49</v>
-      </c>
-      <c r="D73">
-        <v>2015</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
@@ -2168,11 +2168,11 @@
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>2015</v>
+      </c>
+      <c r="C74" t="s">
         <v>50</v>
-      </c>
-      <c r="D74">
-        <v>2015</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
@@ -2182,14 +2182,14 @@
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>2015</v>
+      </c>
+      <c r="C75" t="s">
         <v>51</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>131</v>
-      </c>
-      <c r="D75">
-        <v>2015</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -2202,11 +2202,11 @@
       <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>2015</v>
+      </c>
+      <c r="C76" t="s">
         <v>49</v>
-      </c>
-      <c r="D76">
-        <v>2015</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
@@ -2216,11 +2216,11 @@
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>2015</v>
+      </c>
+      <c r="C77" t="s">
         <v>50</v>
-      </c>
-      <c r="D77">
-        <v>2015</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
@@ -2230,11 +2230,11 @@
       <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>2015</v>
+      </c>
+      <c r="C78" t="s">
         <v>15</v>
-      </c>
-      <c r="D78">
-        <v>2015</v>
       </c>
       <c r="E78" t="s">
         <v>66</v>
@@ -2244,11 +2244,11 @@
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>2015</v>
+      </c>
+      <c r="C79" t="s">
         <v>52</v>
-      </c>
-      <c r="D79">
-        <v>2015</v>
       </c>
       <c r="E79" t="s">
         <v>80</v>
@@ -2258,14 +2258,14 @@
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>2015</v>
+      </c>
+      <c r="C80" t="s">
         <v>53</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>52</v>
-      </c>
-      <c r="D80">
-        <v>2015</v>
       </c>
       <c r="E80" t="s">
         <v>68</v>
@@ -2278,11 +2278,11 @@
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>2015</v>
+      </c>
+      <c r="C81" t="s">
         <v>15</v>
-      </c>
-      <c r="D81">
-        <v>2015</v>
       </c>
       <c r="E81" t="s">
         <v>80</v>
@@ -2292,11 +2292,11 @@
       <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>2015</v>
+      </c>
+      <c r="C82" t="s">
         <v>54</v>
-      </c>
-      <c r="D82">
-        <v>2015</v>
       </c>
       <c r="E82" t="s">
         <v>68</v>
@@ -2306,11 +2306,11 @@
       <c r="A83" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>2015</v>
+      </c>
+      <c r="C83" t="s">
         <v>32</v>
-      </c>
-      <c r="D83">
-        <v>2015</v>
       </c>
       <c r="E83" t="s">
         <v>42</v>
@@ -2320,11 +2320,11 @@
       <c r="A84" t="s">
         <v>6</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>2015</v>
+      </c>
+      <c r="C84" t="s">
         <v>33</v>
-      </c>
-      <c r="D84">
-        <v>2015</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
@@ -2334,14 +2334,14 @@
       <c r="A85" t="s">
         <v>6</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>2015</v>
+      </c>
+      <c r="C85" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>55</v>
-      </c>
-      <c r="D85">
-        <v>2015</v>
       </c>
       <c r="E85" t="s">
         <v>42</v>
@@ -2354,11 +2354,11 @@
       <c r="A86" t="s">
         <v>6</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>2015</v>
+      </c>
+      <c r="C86" t="s">
         <v>32</v>
-      </c>
-      <c r="D86">
-        <v>2015</v>
       </c>
       <c r="E86" t="s">
         <v>41</v>
@@ -2368,11 +2368,11 @@
       <c r="A87" t="s">
         <v>6</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>2015</v>
+      </c>
+      <c r="C87" t="s">
         <v>55</v>
-      </c>
-      <c r="D87">
-        <v>2015</v>
       </c>
       <c r="E87" t="s">
         <v>40</v>
@@ -2382,11 +2382,11 @@
       <c r="A88" t="s">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>2015</v>
+      </c>
+      <c r="C88" t="s">
         <v>29</v>
-      </c>
-      <c r="D88">
-        <v>2015</v>
       </c>
       <c r="E88" t="s">
         <v>181</v>
@@ -2396,11 +2396,11 @@
       <c r="A89" t="s">
         <v>6</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>2015</v>
+      </c>
+      <c r="C89" t="s">
         <v>56</v>
-      </c>
-      <c r="D89">
-        <v>2015</v>
       </c>
       <c r="E89" t="s">
         <v>182</v>
@@ -2410,14 +2410,14 @@
       <c r="A90" t="s">
         <v>6</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>2015</v>
+      </c>
+      <c r="C90" t="s">
         <v>29</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>70</v>
-      </c>
-      <c r="D90">
-        <v>2015</v>
       </c>
       <c r="E90" t="s">
         <v>183</v>
@@ -2430,11 +2430,11 @@
       <c r="A91" t="s">
         <v>6</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>2015</v>
+      </c>
+      <c r="C91" t="s">
         <v>56</v>
-      </c>
-      <c r="D91">
-        <v>2015</v>
       </c>
       <c r="E91" t="s">
         <v>181</v>
@@ -2444,11 +2444,11 @@
       <c r="A92" t="s">
         <v>6</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>2015</v>
+      </c>
+      <c r="C92" t="s">
         <v>57</v>
-      </c>
-      <c r="D92">
-        <v>2015</v>
       </c>
       <c r="E92" t="s">
         <v>182</v>
@@ -2458,11 +2458,11 @@
       <c r="A93" t="s">
         <v>6</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>2015</v>
+      </c>
+      <c r="C93" t="s">
         <v>58</v>
-      </c>
-      <c r="D93">
-        <v>2015</v>
       </c>
       <c r="E93" t="s">
         <v>184</v>
@@ -2472,11 +2472,11 @@
       <c r="A94" t="s">
         <v>6</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>2015</v>
+      </c>
+      <c r="C94" t="s">
         <v>59</v>
-      </c>
-      <c r="D94">
-        <v>2015</v>
       </c>
       <c r="E94" t="s">
         <v>85</v>
@@ -2486,14 +2486,14 @@
       <c r="A95" t="s">
         <v>6</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>2015</v>
+      </c>
+      <c r="C95" t="s">
         <v>58</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>107</v>
-      </c>
-      <c r="D95">
-        <v>2015</v>
       </c>
       <c r="E95" t="s">
         <v>87</v>
@@ -2506,11 +2506,11 @@
       <c r="A96" t="s">
         <v>6</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>2015</v>
+      </c>
+      <c r="C96" t="s">
         <v>37</v>
-      </c>
-      <c r="D96">
-        <v>2015</v>
       </c>
       <c r="E96" t="s">
         <v>185</v>
@@ -2520,11 +2520,11 @@
       <c r="A97" t="s">
         <v>6</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>2015</v>
+      </c>
+      <c r="C97" t="s">
         <v>59</v>
-      </c>
-      <c r="D97">
-        <v>2015</v>
       </c>
       <c r="E97" t="s">
         <v>184</v>
@@ -2534,11 +2534,11 @@
       <c r="A98" t="s">
         <v>6</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>2015</v>
+      </c>
+      <c r="C98" t="s">
         <v>60</v>
-      </c>
-      <c r="D98">
-        <v>2015</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
@@ -2548,11 +2548,11 @@
       <c r="A99" t="s">
         <v>6</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>2015</v>
+      </c>
+      <c r="C99" t="s">
         <v>61</v>
-      </c>
-      <c r="D99">
-        <v>2015</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -2562,14 +2562,14 @@
       <c r="A100" t="s">
         <v>6</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>2015</v>
+      </c>
+      <c r="C100" t="s">
         <v>62</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>61</v>
-      </c>
-      <c r="D100">
-        <v>2015</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
@@ -2582,11 +2582,11 @@
       <c r="A101" t="s">
         <v>6</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>2015</v>
+      </c>
+      <c r="C101" t="s">
         <v>60</v>
-      </c>
-      <c r="D101">
-        <v>2015</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
@@ -2596,11 +2596,11 @@
       <c r="A102" t="s">
         <v>6</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>2015</v>
+      </c>
+      <c r="C102" t="s">
         <v>61</v>
-      </c>
-      <c r="D102">
-        <v>2015</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
@@ -2610,11 +2610,11 @@
       <c r="A103" t="s">
         <v>6</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>2015</v>
+      </c>
+      <c r="C103" t="s">
         <v>63</v>
-      </c>
-      <c r="D103">
-        <v>2015</v>
       </c>
       <c r="E103" t="s">
         <v>93</v>
@@ -2624,11 +2624,11 @@
       <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>2015</v>
+      </c>
+      <c r="C104" t="s">
         <v>64</v>
-      </c>
-      <c r="D104">
-        <v>2015</v>
       </c>
       <c r="E104" t="s">
         <v>46</v>
@@ -2638,14 +2638,14 @@
       <c r="A105" t="s">
         <v>6</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>2015</v>
+      </c>
+      <c r="C105" t="s">
         <v>63</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>161</v>
-      </c>
-      <c r="D105">
-        <v>2015</v>
       </c>
       <c r="E105" t="s">
         <v>94</v>
@@ -2658,11 +2658,11 @@
       <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>2015</v>
+      </c>
+      <c r="C106" t="s">
         <v>64</v>
-      </c>
-      <c r="D106">
-        <v>2015</v>
       </c>
       <c r="E106" t="s">
         <v>93</v>
@@ -2672,11 +2672,11 @@
       <c r="A107" t="s">
         <v>6</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>2015</v>
+      </c>
+      <c r="C107" t="s">
         <v>65</v>
-      </c>
-      <c r="D107">
-        <v>2015</v>
       </c>
       <c r="E107" t="s">
         <v>94</v>
@@ -2686,11 +2686,11 @@
       <c r="A108" t="s">
         <v>7</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>2015</v>
+      </c>
+      <c r="C108" t="s">
         <v>50</v>
-      </c>
-      <c r="D108">
-        <v>2015</v>
       </c>
       <c r="E108" t="s">
         <v>78</v>
@@ -2700,11 +2700,11 @@
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>2015</v>
+      </c>
+      <c r="C109" t="s">
         <v>49</v>
-      </c>
-      <c r="D109">
-        <v>2015</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
@@ -2714,14 +2714,14 @@
       <c r="A110" t="s">
         <v>7</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>2015</v>
+      </c>
+      <c r="C110" t="s">
         <v>49</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>131</v>
-      </c>
-      <c r="D110">
-        <v>2015</v>
       </c>
       <c r="E110" t="s">
         <v>97</v>
@@ -2734,11 +2734,11 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>2015</v>
+      </c>
+      <c r="C111" t="s">
         <v>49</v>
-      </c>
-      <c r="D111">
-        <v>2015</v>
       </c>
       <c r="E111" t="s">
         <v>78</v>
@@ -2748,11 +2748,11 @@
       <c r="A112" t="s">
         <v>7</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>2015</v>
+      </c>
+      <c r="C112" t="s">
         <v>66</v>
-      </c>
-      <c r="D112">
-        <v>2015</v>
       </c>
       <c r="E112" t="s">
         <v>32</v>
@@ -2762,11 +2762,11 @@
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>2015</v>
+      </c>
+      <c r="C113" t="s">
         <v>67</v>
-      </c>
-      <c r="D113">
-        <v>2015</v>
       </c>
       <c r="E113" t="s">
         <v>55</v>
@@ -2776,14 +2776,14 @@
       <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>2015</v>
+      </c>
+      <c r="C114" t="s">
         <v>68</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>69</v>
-      </c>
-      <c r="D114">
-        <v>2015</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -2796,11 +2796,11 @@
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>2015</v>
+      </c>
+      <c r="C115" t="s">
         <v>68</v>
-      </c>
-      <c r="D115">
-        <v>2015</v>
       </c>
       <c r="E115" t="s">
         <v>32</v>
@@ -2810,11 +2810,11 @@
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>2015</v>
+      </c>
+      <c r="C116" t="s">
         <v>69</v>
-      </c>
-      <c r="D116">
-        <v>2015</v>
       </c>
       <c r="E116" t="s">
         <v>55</v>
@@ -2824,11 +2824,11 @@
       <c r="A117" t="s">
         <v>7</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>2015</v>
+      </c>
+      <c r="C117" t="s">
         <v>56</v>
-      </c>
-      <c r="D117">
-        <v>2015</v>
       </c>
       <c r="E117" t="s">
         <v>37</v>
@@ -2838,11 +2838,11 @@
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>2015</v>
+      </c>
+      <c r="C118" t="s">
         <v>57</v>
-      </c>
-      <c r="D118">
-        <v>2015</v>
       </c>
       <c r="E118" t="s">
         <v>59</v>
@@ -2852,14 +2852,14 @@
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>2015</v>
+      </c>
+      <c r="C119" t="s">
         <v>29</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>56</v>
-      </c>
-      <c r="D119">
-        <v>2015</v>
       </c>
       <c r="E119" t="s">
         <v>59</v>
@@ -2872,11 +2872,11 @@
       <c r="A120" t="s">
         <v>7</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>2015</v>
+      </c>
+      <c r="C120" t="s">
         <v>70</v>
-      </c>
-      <c r="D120">
-        <v>2015</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -2886,11 +2886,11 @@
       <c r="A121" t="s">
         <v>7</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>2015</v>
+      </c>
+      <c r="C121" t="s">
         <v>29</v>
-      </c>
-      <c r="D121">
-        <v>2015</v>
       </c>
       <c r="E121" t="s">
         <v>37</v>
@@ -2900,11 +2900,11 @@
       <c r="A122" t="s">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>2015</v>
+      </c>
+      <c r="C122" t="s">
         <v>64</v>
-      </c>
-      <c r="D122">
-        <v>2015</v>
       </c>
       <c r="E122" t="s">
         <v>175</v>
@@ -2914,11 +2914,11 @@
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>2015</v>
+      </c>
+      <c r="C123" t="s">
         <v>65</v>
-      </c>
-      <c r="D123">
-        <v>2015</v>
       </c>
       <c r="E123" t="s">
         <v>186</v>
@@ -2928,14 +2928,14 @@
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>2015</v>
+      </c>
+      <c r="C124" t="s">
         <v>63</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>71</v>
-      </c>
-      <c r="D124">
-        <v>2015</v>
       </c>
       <c r="E124" t="s">
         <v>62</v>
@@ -2948,11 +2948,11 @@
       <c r="A125" t="s">
         <v>7</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>2015</v>
+      </c>
+      <c r="C125" t="s">
         <v>71</v>
-      </c>
-      <c r="D125">
-        <v>2015</v>
       </c>
       <c r="E125" t="s">
         <v>175</v>
@@ -2962,11 +2962,11 @@
       <c r="A126" t="s">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126" t="s">
         <v>64</v>
-      </c>
-      <c r="D126">
-        <v>2015</v>
       </c>
       <c r="E126" t="s">
         <v>186</v>
@@ -2976,11 +2976,11 @@
       <c r="A127" t="s">
         <v>8</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>2015</v>
+      </c>
+      <c r="C127" t="s">
         <v>49</v>
-      </c>
-      <c r="D127">
-        <v>2015</v>
       </c>
       <c r="E127" t="s">
         <v>66</v>
@@ -2990,11 +2990,11 @@
       <c r="A128" t="s">
         <v>8</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>2015</v>
+      </c>
+      <c r="C128" t="s">
         <v>72</v>
-      </c>
-      <c r="D128">
-        <v>2015</v>
       </c>
       <c r="E128" t="s">
         <v>80</v>
@@ -3004,14 +3004,14 @@
       <c r="A129" t="s">
         <v>8</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>2015</v>
+      </c>
+      <c r="C129" t="s">
         <v>49</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>131</v>
-      </c>
-      <c r="D129">
-        <v>2015</v>
       </c>
       <c r="E129" t="s">
         <v>68</v>
@@ -3024,11 +3024,11 @@
       <c r="A130" t="s">
         <v>8</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>2015</v>
+      </c>
+      <c r="C130" t="s">
         <v>49</v>
-      </c>
-      <c r="D130">
-        <v>2015</v>
       </c>
       <c r="E130" t="s">
         <v>80</v>
@@ -3038,11 +3038,11 @@
       <c r="A131" t="s">
         <v>8</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>2015</v>
+      </c>
+      <c r="C131" t="s">
         <v>72</v>
-      </c>
-      <c r="D131">
-        <v>2015</v>
       </c>
       <c r="E131" t="s">
         <v>66</v>
@@ -3052,11 +3052,11 @@
       <c r="A132" t="s">
         <v>8</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>2015</v>
+      </c>
+      <c r="C132" t="s">
         <v>65</v>
-      </c>
-      <c r="D132">
-        <v>2015</v>
       </c>
       <c r="E132" t="s">
         <v>57</v>
@@ -3066,11 +3066,11 @@
       <c r="A133" t="s">
         <v>8</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>2015</v>
+      </c>
+      <c r="C133" t="s">
         <v>64</v>
-      </c>
-      <c r="D133">
-        <v>2015</v>
       </c>
       <c r="E133" t="s">
         <v>56</v>
@@ -3080,14 +3080,14 @@
       <c r="A134" t="s">
         <v>8</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>2015</v>
+      </c>
+      <c r="C134" t="s">
         <v>63</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>64</v>
-      </c>
-      <c r="D134">
-        <v>2015</v>
       </c>
       <c r="E134" t="s">
         <v>29</v>
@@ -3100,11 +3100,11 @@
       <c r="A135" t="s">
         <v>8</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>2015</v>
+      </c>
+      <c r="C135" t="s">
         <v>65</v>
-      </c>
-      <c r="D135">
-        <v>2015</v>
       </c>
       <c r="E135" t="s">
         <v>70</v>
@@ -3114,11 +3114,11 @@
       <c r="A136" t="s">
         <v>8</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>2015</v>
+      </c>
+      <c r="C136" t="s">
         <v>64</v>
-      </c>
-      <c r="D136">
-        <v>2015</v>
       </c>
       <c r="E136" t="s">
         <v>57</v>
@@ -3128,11 +3128,11 @@
       <c r="A137" t="s">
         <v>9</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>2015</v>
+      </c>
+      <c r="C137" t="s">
         <v>65</v>
-      </c>
-      <c r="D137">
-        <v>2015</v>
       </c>
       <c r="E137" t="s">
         <v>84</v>
@@ -3142,11 +3142,11 @@
       <c r="A138" t="s">
         <v>9</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>2015</v>
+      </c>
+      <c r="C138" t="s">
         <v>63</v>
-      </c>
-      <c r="D138">
-        <v>2015</v>
       </c>
       <c r="E138" t="s">
         <v>49</v>
@@ -3156,14 +3156,14 @@
       <c r="A139" t="s">
         <v>9</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>2015</v>
+      </c>
+      <c r="C139" t="s">
         <v>64</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>65</v>
-      </c>
-      <c r="D139">
-        <v>2015</v>
       </c>
       <c r="E139" t="s">
         <v>49</v>
@@ -3176,11 +3176,11 @@
       <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>2015</v>
+      </c>
+      <c r="C140" t="s">
         <v>65</v>
-      </c>
-      <c r="D140">
-        <v>2015</v>
       </c>
       <c r="E140" t="s">
         <v>49</v>
@@ -3190,11 +3190,11 @@
       <c r="A141" t="s">
         <v>6</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>2016</v>
+      </c>
+      <c r="C141" t="s">
         <v>49</v>
-      </c>
-      <c r="D141">
-        <v>2016</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -3204,11 +3204,11 @@
       <c r="A142" t="s">
         <v>6</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>2016</v>
+      </c>
+      <c r="C142" t="s">
         <v>72</v>
-      </c>
-      <c r="D142">
-        <v>2016</v>
       </c>
       <c r="E142" t="s">
         <v>16</v>
@@ -3218,14 +3218,14 @@
       <c r="A143" t="s">
         <v>6</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>2016</v>
+      </c>
+      <c r="C143" t="s">
         <v>49</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>131</v>
-      </c>
-      <c r="D143">
-        <v>2016</v>
       </c>
       <c r="E143" t="s">
         <v>187</v>
@@ -3238,11 +3238,11 @@
       <c r="A144" t="s">
         <v>6</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>2016</v>
+      </c>
+      <c r="C144" t="s">
         <v>49</v>
-      </c>
-      <c r="D144">
-        <v>2016</v>
       </c>
       <c r="E144" t="s">
         <v>16</v>
@@ -3252,11 +3252,11 @@
       <c r="A145" t="s">
         <v>6</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>2016</v>
+      </c>
+      <c r="C145" t="s">
         <v>58</v>
-      </c>
-      <c r="D145">
-        <v>2016</v>
       </c>
       <c r="E145" t="s">
         <v>55</v>
@@ -3266,11 +3266,11 @@
       <c r="A146" t="s">
         <v>6</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>2016</v>
+      </c>
+      <c r="C146" t="s">
         <v>59</v>
-      </c>
-      <c r="D146">
-        <v>2016</v>
       </c>
       <c r="E146" t="s">
         <v>32</v>
@@ -3280,14 +3280,14 @@
       <c r="A147" t="s">
         <v>6</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>2016</v>
+      </c>
+      <c r="C147" t="s">
         <v>58</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>107</v>
-      </c>
-      <c r="D147">
-        <v>2016</v>
       </c>
       <c r="E147" t="s">
         <v>33</v>
@@ -3300,11 +3300,11 @@
       <c r="A148" t="s">
         <v>6</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>2016</v>
+      </c>
+      <c r="C148" t="s">
         <v>58</v>
-      </c>
-      <c r="D148">
-        <v>2016</v>
       </c>
       <c r="E148" t="s">
         <v>32</v>
@@ -3314,11 +3314,11 @@
       <c r="A149" t="s">
         <v>6</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>2016</v>
+      </c>
+      <c r="C149" t="s">
         <v>59</v>
-      </c>
-      <c r="D149">
-        <v>2016</v>
       </c>
       <c r="E149" t="s">
         <v>55</v>
@@ -3328,11 +3328,11 @@
       <c r="A150" t="s">
         <v>6</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>2016</v>
+      </c>
+      <c r="C150" t="s">
         <v>73</v>
-      </c>
-      <c r="D150">
-        <v>2016</v>
       </c>
       <c r="E150" t="s">
         <v>45</v>
@@ -3342,11 +3342,11 @@
       <c r="A151" t="s">
         <v>6</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>2016</v>
+      </c>
+      <c r="C151" t="s">
         <v>41</v>
-      </c>
-      <c r="D151">
-        <v>2016</v>
       </c>
       <c r="E151" t="s">
         <v>93</v>
@@ -3356,14 +3356,14 @@
       <c r="A152" t="s">
         <v>6</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152">
+        <v>2016</v>
+      </c>
+      <c r="C152" t="s">
         <v>42</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>41</v>
-      </c>
-      <c r="D152">
-        <v>2016</v>
       </c>
       <c r="E152" t="s">
         <v>45</v>
@@ -3376,11 +3376,11 @@
       <c r="A153" t="s">
         <v>6</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153">
+        <v>2016</v>
+      </c>
+      <c r="C153" t="s">
         <v>74</v>
-      </c>
-      <c r="D153">
-        <v>2016</v>
       </c>
       <c r="E153" t="s">
         <v>94</v>
@@ -3390,11 +3390,11 @@
       <c r="A154" t="s">
         <v>6</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154">
+        <v>2016</v>
+      </c>
+      <c r="C154" t="s">
         <v>73</v>
-      </c>
-      <c r="D154">
-        <v>2016</v>
       </c>
       <c r="E154" t="s">
         <v>95</v>
@@ -3404,11 +3404,11 @@
       <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>2016</v>
+      </c>
+      <c r="C155" t="s">
         <v>75</v>
-      </c>
-      <c r="D155">
-        <v>2016</v>
       </c>
       <c r="E155" t="s">
         <v>89</v>
@@ -3418,11 +3418,11 @@
       <c r="A156" t="s">
         <v>6</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156">
+        <v>2016</v>
+      </c>
+      <c r="C156" t="s">
         <v>76</v>
-      </c>
-      <c r="D156">
-        <v>2016</v>
       </c>
       <c r="E156" t="s">
         <v>56</v>
@@ -3432,14 +3432,14 @@
       <c r="A157" t="s">
         <v>6</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157">
+        <v>2016</v>
+      </c>
+      <c r="C157" t="s">
         <v>77</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>162</v>
-      </c>
-      <c r="D157">
-        <v>2016</v>
       </c>
       <c r="E157" t="s">
         <v>29</v>
@@ -3452,11 +3452,11 @@
       <c r="A158" t="s">
         <v>6</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158">
+        <v>2016</v>
+      </c>
+      <c r="C158" t="s">
         <v>75</v>
-      </c>
-      <c r="D158">
-        <v>2016</v>
       </c>
       <c r="E158" t="s">
         <v>56</v>
@@ -3466,11 +3466,11 @@
       <c r="A159" t="s">
         <v>6</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159">
+        <v>2016</v>
+      </c>
+      <c r="C159" t="s">
         <v>76</v>
-      </c>
-      <c r="D159">
-        <v>2016</v>
       </c>
       <c r="E159" t="s">
         <v>188</v>
@@ -3480,11 +3480,11 @@
       <c r="A160" t="s">
         <v>6</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>2016</v>
+      </c>
+      <c r="C160" t="s">
         <v>25</v>
-      </c>
-      <c r="D160">
-        <v>2016</v>
       </c>
       <c r="E160" t="s">
         <v>175</v>
@@ -3494,11 +3494,11 @@
       <c r="A161" t="s">
         <v>6</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>2016</v>
+      </c>
+      <c r="C161" t="s">
         <v>78</v>
-      </c>
-      <c r="D161">
-        <v>2016</v>
       </c>
       <c r="E161" t="s">
         <v>61</v>
@@ -3508,14 +3508,14 @@
       <c r="A162" t="s">
         <v>6</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162">
+        <v>2016</v>
+      </c>
+      <c r="C162" t="s">
         <v>22</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>23</v>
-      </c>
-      <c r="D162">
-        <v>2016</v>
       </c>
       <c r="E162" t="s">
         <v>189</v>
@@ -3528,11 +3528,11 @@
       <c r="A163" t="s">
         <v>6</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163">
+        <v>2016</v>
+      </c>
+      <c r="C163" t="s">
         <v>22</v>
-      </c>
-      <c r="D163">
-        <v>2016</v>
       </c>
       <c r="E163" t="s">
         <v>189</v>
@@ -3542,11 +3542,11 @@
       <c r="A164" t="s">
         <v>6</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164">
+        <v>2016</v>
+      </c>
+      <c r="C164" t="s">
         <v>23</v>
-      </c>
-      <c r="D164">
-        <v>2016</v>
       </c>
       <c r="E164" t="s">
         <v>175</v>
@@ -3556,11 +3556,11 @@
       <c r="A165" t="s">
         <v>6</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>2016</v>
+      </c>
+      <c r="C165" t="s">
         <v>18</v>
-      </c>
-      <c r="D165">
-        <v>2016</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -3570,11 +3570,11 @@
       <c r="A166" t="s">
         <v>6</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166">
+        <v>2016</v>
+      </c>
+      <c r="C166" t="s">
         <v>79</v>
-      </c>
-      <c r="D166">
-        <v>2016</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
@@ -3584,14 +3584,14 @@
       <c r="A167" t="s">
         <v>6</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>2016</v>
+      </c>
+      <c r="C167" t="s">
         <v>18</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>163</v>
-      </c>
-      <c r="D167">
-        <v>2016</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -3604,11 +3604,11 @@
       <c r="A168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168">
+        <v>2016</v>
+      </c>
+      <c r="C168" t="s">
         <v>18</v>
-      </c>
-      <c r="D168">
-        <v>2016</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
@@ -3618,11 +3618,11 @@
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169">
+        <v>2016</v>
+      </c>
+      <c r="C169" t="s">
         <v>79</v>
-      </c>
-      <c r="D169">
-        <v>2016</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -3632,11 +3632,11 @@
       <c r="A170" t="s">
         <v>6</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>2016</v>
+      </c>
+      <c r="C170" t="s">
         <v>68</v>
-      </c>
-      <c r="D170">
-        <v>2016</v>
       </c>
       <c r="E170" t="s">
         <v>83</v>
@@ -3646,11 +3646,11 @@
       <c r="A171" t="s">
         <v>6</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171">
+        <v>2016</v>
+      </c>
+      <c r="C171" t="s">
         <v>80</v>
-      </c>
-      <c r="D171">
-        <v>2016</v>
       </c>
       <c r="E171" t="s">
         <v>82</v>
@@ -3660,14 +3660,14 @@
       <c r="A172" t="s">
         <v>6</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172">
+        <v>2016</v>
+      </c>
+      <c r="C172" t="s">
         <v>69</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>108</v>
-      </c>
-      <c r="D172">
-        <v>2016</v>
       </c>
       <c r="E172" t="s">
         <v>28</v>
@@ -3680,11 +3680,11 @@
       <c r="A173" t="s">
         <v>6</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173">
+        <v>2016</v>
+      </c>
+      <c r="C173" t="s">
         <v>80</v>
-      </c>
-      <c r="D173">
-        <v>2016</v>
       </c>
       <c r="E173" t="s">
         <v>83</v>
@@ -3694,11 +3694,11 @@
       <c r="A174" t="s">
         <v>6</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174">
+        <v>2016</v>
+      </c>
+      <c r="C174" t="s">
         <v>71</v>
-      </c>
-      <c r="D174">
-        <v>2016</v>
       </c>
       <c r="E174" t="s">
         <v>86</v>
@@ -3708,11 +3708,11 @@
       <c r="A175" t="s">
         <v>6</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175">
+        <v>2016</v>
+      </c>
+      <c r="C175" t="s">
         <v>65</v>
-      </c>
-      <c r="D175">
-        <v>2016</v>
       </c>
       <c r="E175" t="s">
         <v>85</v>
@@ -3722,14 +3722,14 @@
       <c r="A176" t="s">
         <v>6</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>2016</v>
+      </c>
+      <c r="C176" t="s">
         <v>63</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>65</v>
-      </c>
-      <c r="D176">
-        <v>2016</v>
       </c>
       <c r="E176" t="s">
         <v>125</v>
@@ -3742,11 +3742,11 @@
       <c r="A177" t="s">
         <v>6</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177">
+        <v>2016</v>
+      </c>
+      <c r="C177" t="s">
         <v>65</v>
-      </c>
-      <c r="D177">
-        <v>2016</v>
       </c>
       <c r="E177" t="s">
         <v>86</v>
@@ -3756,11 +3756,11 @@
       <c r="A178" t="s">
         <v>6</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178">
+        <v>2016</v>
+      </c>
+      <c r="C178" t="s">
         <v>71</v>
-      </c>
-      <c r="D178">
-        <v>2016</v>
       </c>
       <c r="E178" t="s">
         <v>85</v>
@@ -3770,11 +3770,11 @@
       <c r="A179" t="s">
         <v>7</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179">
+        <v>2016</v>
+      </c>
+      <c r="C179" t="s">
         <v>81</v>
-      </c>
-      <c r="D179">
-        <v>2016</v>
       </c>
       <c r="E179" t="s">
         <v>84</v>
@@ -3784,11 +3784,11 @@
       <c r="A180" t="s">
         <v>7</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180">
+        <v>2016</v>
+      </c>
+      <c r="C180" t="s">
         <v>36</v>
-      </c>
-      <c r="D180">
-        <v>2016</v>
       </c>
       <c r="E180" t="s">
         <v>50</v>
@@ -3798,14 +3798,14 @@
       <c r="A181" t="s">
         <v>7</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181">
+        <v>2016</v>
+      </c>
+      <c r="C181" t="s">
         <v>37</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>107</v>
-      </c>
-      <c r="D181">
-        <v>2016</v>
       </c>
       <c r="E181" t="s">
         <v>51</v>
@@ -3818,11 +3818,11 @@
       <c r="A182" t="s">
         <v>7</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182">
+        <v>2016</v>
+      </c>
+      <c r="C182" t="s">
         <v>36</v>
-      </c>
-      <c r="D182">
-        <v>2016</v>
       </c>
       <c r="E182" t="s">
         <v>84</v>
@@ -3832,11 +3832,11 @@
       <c r="A183" t="s">
         <v>7</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183">
+        <v>2016</v>
+      </c>
+      <c r="C183" t="s">
         <v>81</v>
-      </c>
-      <c r="D183">
-        <v>2016</v>
       </c>
       <c r="E183" t="s">
         <v>50</v>
@@ -3846,11 +3846,11 @@
       <c r="A184" t="s">
         <v>7</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184">
+        <v>2016</v>
+      </c>
+      <c r="C184" t="s">
         <v>41</v>
-      </c>
-      <c r="D184">
-        <v>2016</v>
       </c>
       <c r="E184" t="s">
         <v>57</v>
@@ -3860,11 +3860,11 @@
       <c r="A185" t="s">
         <v>7</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185">
+        <v>2016</v>
+      </c>
+      <c r="C185" t="s">
         <v>40</v>
-      </c>
-      <c r="D185">
-        <v>2016</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -3874,14 +3874,14 @@
       <c r="A186" t="s">
         <v>7</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186">
+        <v>2016</v>
+      </c>
+      <c r="C186" t="s">
         <v>40</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>73</v>
-      </c>
-      <c r="D186">
-        <v>2016</v>
       </c>
       <c r="E186" t="s">
         <v>190</v>
@@ -3894,11 +3894,11 @@
       <c r="A187" t="s">
         <v>7</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187">
+        <v>2016</v>
+      </c>
+      <c r="C187" t="s">
         <v>40</v>
-      </c>
-      <c r="D187">
-        <v>2016</v>
       </c>
       <c r="E187" t="s">
         <v>57</v>
@@ -3908,11 +3908,11 @@
       <c r="A188" t="s">
         <v>7</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188">
+        <v>2016</v>
+      </c>
+      <c r="C188" t="s">
         <v>15</v>
-      </c>
-      <c r="D188">
-        <v>2016</v>
       </c>
       <c r="E188" t="s">
         <v>23</v>
@@ -3922,11 +3922,11 @@
       <c r="A189" t="s">
         <v>7</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189">
+        <v>2016</v>
+      </c>
+      <c r="C189" t="s">
         <v>52</v>
-      </c>
-      <c r="D189">
-        <v>2016</v>
       </c>
       <c r="E189" t="s">
         <v>105</v>
@@ -3936,14 +3936,14 @@
       <c r="A190" t="s">
         <v>7</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190">
+        <v>2016</v>
+      </c>
+      <c r="C190" t="s">
         <v>15</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>13</v>
-      </c>
-      <c r="D190">
-        <v>2016</v>
       </c>
       <c r="E190" t="s">
         <v>96</v>
@@ -3956,11 +3956,11 @@
       <c r="A191" t="s">
         <v>7</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191">
+        <v>2016</v>
+      </c>
+      <c r="C191" t="s">
         <v>52</v>
-      </c>
-      <c r="D191">
-        <v>2016</v>
       </c>
       <c r="E191" t="s">
         <v>23</v>
@@ -3970,11 +3970,11 @@
       <c r="A192" t="s">
         <v>7</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192">
+        <v>2016</v>
+      </c>
+      <c r="C192" t="s">
         <v>82</v>
-      </c>
-      <c r="D192">
-        <v>2016</v>
       </c>
       <c r="E192" t="s">
         <v>86</v>
@@ -3984,11 +3984,11 @@
       <c r="A193" t="s">
         <v>7</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193">
+        <v>2016</v>
+      </c>
+      <c r="C193" t="s">
         <v>83</v>
-      </c>
-      <c r="D193">
-        <v>2016</v>
       </c>
       <c r="E193" t="s">
         <v>85</v>
@@ -3998,14 +3998,14 @@
       <c r="A194" t="s">
         <v>7</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194">
+        <v>2016</v>
+      </c>
+      <c r="C194" t="s">
         <v>28</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>157</v>
-      </c>
-      <c r="D194">
-        <v>2016</v>
       </c>
       <c r="E194" t="s">
         <v>86</v>
@@ -4018,11 +4018,11 @@
       <c r="A195" t="s">
         <v>7</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195">
+        <v>2016</v>
+      </c>
+      <c r="C195" t="s">
         <v>83</v>
-      </c>
-      <c r="D195">
-        <v>2016</v>
       </c>
       <c r="E195" t="s">
         <v>86</v>
@@ -4032,11 +4032,11 @@
       <c r="A196" t="s">
         <v>7</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196">
+        <v>2016</v>
+      </c>
+      <c r="C196" t="s">
         <v>82</v>
-      </c>
-      <c r="D196">
-        <v>2016</v>
       </c>
       <c r="E196" t="s">
         <v>85</v>
@@ -4046,11 +4046,11 @@
       <c r="A197" t="s">
         <v>8</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197">
+        <v>2016</v>
+      </c>
+      <c r="C197" t="s">
         <v>49</v>
-      </c>
-      <c r="D197">
-        <v>2016</v>
       </c>
       <c r="E197" t="s">
         <v>190</v>
@@ -4060,11 +4060,11 @@
       <c r="A198" t="s">
         <v>8</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198">
+        <v>2016</v>
+      </c>
+      <c r="C198" t="s">
         <v>84</v>
-      </c>
-      <c r="D198">
-        <v>2016</v>
       </c>
       <c r="E198" t="s">
         <v>89</v>
@@ -4074,14 +4074,14 @@
       <c r="A199" t="s">
         <v>8</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199">
+        <v>2016</v>
+      </c>
+      <c r="C199" t="s">
         <v>49</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>131</v>
-      </c>
-      <c r="D199">
-        <v>2016</v>
       </c>
       <c r="E199" t="s">
         <v>190</v>
@@ -4094,11 +4094,11 @@
       <c r="A200" t="s">
         <v>8</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200">
+        <v>2016</v>
+      </c>
+      <c r="C200" t="s">
         <v>49</v>
-      </c>
-      <c r="D200">
-        <v>2016</v>
       </c>
       <c r="E200" t="s">
         <v>89</v>
@@ -4108,11 +4108,11 @@
       <c r="A201" t="s">
         <v>8</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201">
+        <v>2016</v>
+      </c>
+      <c r="C201" t="s">
         <v>72</v>
-      </c>
-      <c r="D201">
-        <v>2016</v>
       </c>
       <c r="E201" t="s">
         <v>56</v>
@@ -4122,11 +4122,11 @@
       <c r="A202" t="s">
         <v>8</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202">
+        <v>2016</v>
+      </c>
+      <c r="C202" t="s">
         <v>85</v>
-      </c>
-      <c r="D202">
-        <v>2016</v>
       </c>
       <c r="E202" t="s">
         <v>22</v>
@@ -4136,11 +4136,11 @@
       <c r="A203" t="s">
         <v>8</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203">
+        <v>2016</v>
+      </c>
+      <c r="C203" t="s">
         <v>86</v>
-      </c>
-      <c r="D203">
-        <v>2016</v>
       </c>
       <c r="E203" t="s">
         <v>105</v>
@@ -4150,14 +4150,14 @@
       <c r="A204" t="s">
         <v>8</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204">
+        <v>2016</v>
+      </c>
+      <c r="C204" t="s">
         <v>86</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>125</v>
-      </c>
-      <c r="D204">
-        <v>2016</v>
       </c>
       <c r="E204" t="s">
         <v>96</v>
@@ -4170,11 +4170,11 @@
       <c r="A205" t="s">
         <v>8</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205">
+        <v>2016</v>
+      </c>
+      <c r="C205" t="s">
         <v>86</v>
-      </c>
-      <c r="D205">
-        <v>2016</v>
       </c>
       <c r="E205" t="s">
         <v>22</v>
@@ -4184,11 +4184,11 @@
       <c r="A206" t="s">
         <v>8</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206">
+        <v>2016</v>
+      </c>
+      <c r="C206" t="s">
         <v>87</v>
-      </c>
-      <c r="D206">
-        <v>2016</v>
       </c>
       <c r="E206" t="s">
         <v>105</v>
@@ -4198,11 +4198,11 @@
       <c r="A207" t="s">
         <v>9</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207">
+        <v>2016</v>
+      </c>
+      <c r="C207" t="s">
         <v>86</v>
-      </c>
-      <c r="D207">
-        <v>2016</v>
       </c>
       <c r="E207" t="s">
         <v>57</v>
@@ -4212,11 +4212,11 @@
       <c r="A208" t="s">
         <v>9</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208">
+        <v>2016</v>
+      </c>
+      <c r="C208" t="s">
         <v>88</v>
-      </c>
-      <c r="D208">
-        <v>2016</v>
       </c>
       <c r="E208" t="s">
         <v>190</v>
@@ -4226,14 +4226,14 @@
       <c r="A209" t="s">
         <v>9</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209">
+        <v>2016</v>
+      </c>
+      <c r="C209" t="s">
         <v>86</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>125</v>
-      </c>
-      <c r="D209">
-        <v>2016</v>
       </c>
       <c r="E209" t="s">
         <v>190</v>
@@ -4246,11 +4246,11 @@
       <c r="A210" t="s">
         <v>9</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210">
+        <v>2016</v>
+      </c>
+      <c r="C210" t="s">
         <v>86</v>
-      </c>
-      <c r="D210">
-        <v>2016</v>
       </c>
       <c r="E210" t="s">
         <v>190</v>
@@ -4260,11 +4260,11 @@
       <c r="A211" t="s">
         <v>9</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211">
+        <v>2016</v>
+      </c>
+      <c r="C211" t="s">
         <v>88</v>
-      </c>
-      <c r="D211">
-        <v>2016</v>
       </c>
       <c r="E211" t="s">
         <v>57</v>
@@ -4274,11 +4274,11 @@
       <c r="A212" t="s">
         <v>6</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212">
+        <v>2017</v>
+      </c>
+      <c r="C212" t="s">
         <v>89</v>
-      </c>
-      <c r="D212">
-        <v>2017</v>
       </c>
       <c r="E212" t="s">
         <v>73</v>
@@ -4288,11 +4288,11 @@
       <c r="A213" t="s">
         <v>6</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213">
+        <v>2017</v>
+      </c>
+      <c r="C213" t="s">
         <v>29</v>
-      </c>
-      <c r="D213">
-        <v>2017</v>
       </c>
       <c r="E213" t="s">
         <v>41</v>
@@ -4302,14 +4302,14 @@
       <c r="A214" t="s">
         <v>6</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214">
+        <v>2017</v>
+      </c>
+      <c r="C214" t="s">
         <v>29</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>56</v>
-      </c>
-      <c r="D214">
-        <v>2017</v>
       </c>
       <c r="E214" t="s">
         <v>42</v>
@@ -4322,11 +4322,11 @@
       <c r="A215" t="s">
         <v>6</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215">
+        <v>2017</v>
+      </c>
+      <c r="C215" t="s">
         <v>29</v>
-      </c>
-      <c r="D215">
-        <v>2017</v>
       </c>
       <c r="E215" t="s">
         <v>73</v>
@@ -4336,11 +4336,11 @@
       <c r="A216" t="s">
         <v>6</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216">
+        <v>2017</v>
+      </c>
+      <c r="C216" t="s">
         <v>89</v>
-      </c>
-      <c r="D216">
-        <v>2017</v>
       </c>
       <c r="E216" t="s">
         <v>40</v>
@@ -4350,11 +4350,11 @@
       <c r="A217" t="s">
         <v>6</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217">
+        <v>2017</v>
+      </c>
+      <c r="C217" t="s">
         <v>18</v>
-      </c>
-      <c r="D217">
-        <v>2017</v>
       </c>
       <c r="E217" t="s">
         <v>64</v>
@@ -4364,11 +4364,11 @@
       <c r="A218" t="s">
         <v>6</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218">
+        <v>2017</v>
+      </c>
+      <c r="C218" t="s">
         <v>79</v>
-      </c>
-      <c r="D218">
-        <v>2017</v>
       </c>
       <c r="E218" t="s">
         <v>191</v>
@@ -4378,14 +4378,14 @@
       <c r="A219" t="s">
         <v>6</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219">
+        <v>2017</v>
+      </c>
+      <c r="C219" t="s">
         <v>79</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>90</v>
-      </c>
-      <c r="D219">
-        <v>2017</v>
       </c>
       <c r="E219" t="s">
         <v>63</v>
@@ -4398,11 +4398,11 @@
       <c r="A220" t="s">
         <v>6</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220">
+        <v>2017</v>
+      </c>
+      <c r="C220" t="s">
         <v>79</v>
-      </c>
-      <c r="D220">
-        <v>2017</v>
       </c>
       <c r="E220" t="s">
         <v>64</v>
@@ -4412,11 +4412,11 @@
       <c r="A221" t="s">
         <v>6</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221">
+        <v>2017</v>
+      </c>
+      <c r="C221" t="s">
         <v>90</v>
-      </c>
-      <c r="D221">
-        <v>2017</v>
       </c>
       <c r="E221" t="s">
         <v>63</v>
@@ -4426,11 +4426,11 @@
       <c r="A222" t="s">
         <v>6</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222">
+        <v>2017</v>
+      </c>
+      <c r="C222" t="s">
         <v>91</v>
-      </c>
-      <c r="D222">
-        <v>2017</v>
       </c>
       <c r="E222" t="s">
         <v>91</v>
@@ -4440,11 +4440,11 @@
       <c r="A223" t="s">
         <v>6</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223">
+        <v>2017</v>
+      </c>
+      <c r="C223" t="s">
         <v>52</v>
-      </c>
-      <c r="D223">
-        <v>2017</v>
       </c>
       <c r="E223" t="s">
         <v>67</v>
@@ -4454,11 +4454,11 @@
       <c r="A224" t="s">
         <v>6</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224">
+        <v>2017</v>
+      </c>
+      <c r="C224" t="s">
         <v>67</v>
-      </c>
-      <c r="D224">
-        <v>2017</v>
       </c>
       <c r="E224" t="s">
         <v>92</v>
@@ -4468,14 +4468,14 @@
       <c r="A225" t="s">
         <v>6</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225">
+        <v>2017</v>
+      </c>
+      <c r="C225" t="s">
         <v>68</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>108</v>
-      </c>
-      <c r="D225">
-        <v>2017</v>
       </c>
       <c r="E225" t="s">
         <v>68</v>
@@ -4488,14 +4488,14 @@
       <c r="A226" t="s">
         <v>6</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226">
+        <v>2017</v>
+      </c>
+      <c r="C226" t="s">
         <v>68</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>108</v>
-      </c>
-      <c r="D226">
-        <v>2017</v>
       </c>
       <c r="E226" t="s">
         <v>68</v>
@@ -4508,14 +4508,14 @@
       <c r="A227" t="s">
         <v>6</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227">
+        <v>2017</v>
+      </c>
+      <c r="C227" t="s">
         <v>92</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>52</v>
-      </c>
-      <c r="D227">
-        <v>2017</v>
       </c>
       <c r="E227" t="s">
         <v>68</v>
@@ -4525,11 +4525,11 @@
       <c r="A228" t="s">
         <v>6</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228">
+        <v>2017</v>
+      </c>
+      <c r="C228" t="s">
         <v>68</v>
-      </c>
-      <c r="D228">
-        <v>2017</v>
       </c>
       <c r="E228" t="s">
         <v>52</v>
@@ -4539,11 +4539,11 @@
       <c r="A229" t="s">
         <v>6</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229">
+        <v>2017</v>
+      </c>
+      <c r="C229" t="s">
         <v>91</v>
-      </c>
-      <c r="D229">
-        <v>2017</v>
       </c>
       <c r="E229" t="s">
         <v>91</v>
@@ -4553,11 +4553,11 @@
       <c r="A230" t="s">
         <v>6</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>2017</v>
+      </c>
+      <c r="C230" t="s">
         <v>92</v>
-      </c>
-      <c r="D230">
-        <v>2017</v>
       </c>
       <c r="E230" t="s">
         <v>82</v>
@@ -4567,11 +4567,11 @@
       <c r="A231" t="s">
         <v>6</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231">
+        <v>2017</v>
+      </c>
+      <c r="C231" t="s">
         <v>45</v>
-      </c>
-      <c r="D231">
-        <v>2017</v>
       </c>
       <c r="E231" t="s">
         <v>83</v>
@@ -4581,11 +4581,11 @@
       <c r="A232" t="s">
         <v>6</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232">
+        <v>2017</v>
+      </c>
+      <c r="C232" t="s">
         <v>93</v>
-      </c>
-      <c r="D232">
-        <v>2017</v>
       </c>
       <c r="E232" t="s">
         <v>192</v>
@@ -4598,14 +4598,14 @@
       <c r="A233" t="s">
         <v>6</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233">
+        <v>2017</v>
+      </c>
+      <c r="C233" t="s">
         <v>94</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>93</v>
-      </c>
-      <c r="D233">
-        <v>2017</v>
       </c>
       <c r="E233" t="s">
         <v>27</v>
@@ -4615,11 +4615,11 @@
       <c r="A234" t="s">
         <v>6</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234">
+        <v>2017</v>
+      </c>
+      <c r="C234" t="s">
         <v>94</v>
-      </c>
-      <c r="D234">
-        <v>2017</v>
       </c>
       <c r="E234" t="s">
         <v>192</v>
@@ -4629,11 +4629,11 @@
       <c r="A235" t="s">
         <v>6</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235">
+        <v>2017</v>
+      </c>
+      <c r="C235" t="s">
         <v>95</v>
-      </c>
-      <c r="D235">
-        <v>2017</v>
       </c>
       <c r="E235" t="s">
         <v>39</v>
@@ -4643,11 +4643,11 @@
       <c r="A236" t="s">
         <v>6</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>2017</v>
+      </c>
+      <c r="C236" t="s">
         <v>22</v>
-      </c>
-      <c r="D236">
-        <v>2017</v>
       </c>
       <c r="E236" t="s">
         <v>187</v>
@@ -4657,11 +4657,11 @@
       <c r="A237" t="s">
         <v>6</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237">
+        <v>2017</v>
+      </c>
+      <c r="C237" t="s">
         <v>78</v>
-      </c>
-      <c r="D237">
-        <v>2017</v>
       </c>
       <c r="E237" t="s">
         <v>110</v>
@@ -4674,14 +4674,14 @@
       <c r="A238" t="s">
         <v>6</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238">
+        <v>2017</v>
+      </c>
+      <c r="C238" t="s">
         <v>96</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>97</v>
-      </c>
-      <c r="D238">
-        <v>2017</v>
       </c>
       <c r="E238" t="s">
         <v>187</v>
@@ -4691,11 +4691,11 @@
       <c r="A239" t="s">
         <v>6</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239">
+        <v>2017</v>
+      </c>
+      <c r="C239" t="s">
         <v>97</v>
-      </c>
-      <c r="D239">
-        <v>2017</v>
       </c>
       <c r="E239" t="s">
         <v>156</v>
@@ -4705,11 +4705,11 @@
       <c r="A240" t="s">
         <v>6</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240">
+        <v>2017</v>
+      </c>
+      <c r="C240" t="s">
         <v>96</v>
-      </c>
-      <c r="D240">
-        <v>2017</v>
       </c>
       <c r="E240" t="s">
         <v>133</v>
@@ -4719,11 +4719,11 @@
       <c r="A241" t="s">
         <v>6</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241">
+        <v>2017</v>
+      </c>
+      <c r="C241" t="s">
         <v>72</v>
-      </c>
-      <c r="D241">
-        <v>2017</v>
       </c>
       <c r="E241" t="s">
         <v>61</v>
@@ -4733,11 +4733,11 @@
       <c r="A242" t="s">
         <v>6</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242">
+        <v>2017</v>
+      </c>
+      <c r="C242" t="s">
         <v>84</v>
-      </c>
-      <c r="D242">
-        <v>2017</v>
       </c>
       <c r="E242" t="s">
         <v>62</v>
@@ -4750,14 +4750,14 @@
       <c r="A243" t="s">
         <v>6</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243">
+        <v>2017</v>
+      </c>
+      <c r="C243" t="s">
         <v>51</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>131</v>
-      </c>
-      <c r="D243">
-        <v>2017</v>
       </c>
       <c r="E243" t="s">
         <v>61</v>
@@ -4767,11 +4767,11 @@
       <c r="A244" t="s">
         <v>6</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244">
+        <v>2017</v>
+      </c>
+      <c r="C244" t="s">
         <v>72</v>
-      </c>
-      <c r="D244">
-        <v>2017</v>
       </c>
       <c r="E244" t="s">
         <v>133</v>
@@ -4781,11 +4781,11 @@
       <c r="A245" t="s">
         <v>6</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245">
+        <v>2017</v>
+      </c>
+      <c r="C245" t="s">
         <v>84</v>
-      </c>
-      <c r="D245">
-        <v>2017</v>
       </c>
       <c r="E245" t="s">
         <v>59</v>
@@ -4795,11 +4795,11 @@
       <c r="A246" t="s">
         <v>6</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246">
+        <v>2017</v>
+      </c>
+      <c r="C246" t="s">
         <v>98</v>
-      </c>
-      <c r="D246">
-        <v>2017</v>
       </c>
       <c r="E246" t="s">
         <v>58</v>
@@ -4809,11 +4809,11 @@
       <c r="A247" t="s">
         <v>6</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247">
+        <v>2017</v>
+      </c>
+      <c r="C247" t="s">
         <v>99</v>
-      </c>
-      <c r="D247">
-        <v>2017</v>
       </c>
       <c r="E247" t="s">
         <v>59</v>
@@ -4826,14 +4826,14 @@
       <c r="A248" t="s">
         <v>6</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248">
+        <v>2017</v>
+      </c>
+      <c r="C248" t="s">
         <v>100</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>164</v>
-      </c>
-      <c r="D248">
-        <v>2017</v>
       </c>
       <c r="E248" t="s">
         <v>36</v>
@@ -4843,11 +4843,11 @@
       <c r="A249" t="s">
         <v>6</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249">
+        <v>2017</v>
+      </c>
+      <c r="C249" t="s">
         <v>100</v>
-      </c>
-      <c r="D249">
-        <v>2017</v>
       </c>
       <c r="E249" t="s">
         <v>107</v>
@@ -4857,11 +4857,11 @@
       <c r="A250" t="s">
         <v>6</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250">
+        <v>2017</v>
+      </c>
+      <c r="C250" t="s">
         <v>99</v>
-      </c>
-      <c r="D250">
-        <v>2017</v>
       </c>
       <c r="E250" t="s">
         <v>185</v>
@@ -4871,11 +4871,11 @@
       <c r="A251" t="s">
         <v>6</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251">
+        <v>2017</v>
+      </c>
+      <c r="C251" t="s">
         <v>101</v>
-      </c>
-      <c r="D251">
-        <v>2017</v>
       </c>
       <c r="E251" t="s">
         <v>193</v>
@@ -4885,11 +4885,11 @@
       <c r="A252" t="s">
         <v>6</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252">
+        <v>2017</v>
+      </c>
+      <c r="C252" t="s">
         <v>102</v>
-      </c>
-      <c r="D252">
-        <v>2017</v>
       </c>
       <c r="E252" t="s">
         <v>87</v>
@@ -4902,14 +4902,14 @@
       <c r="A253" t="s">
         <v>6</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253">
+        <v>2017</v>
+      </c>
+      <c r="C253" t="s">
         <v>103</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>165</v>
-      </c>
-      <c r="D253">
-        <v>2017</v>
       </c>
       <c r="E253" t="s">
         <v>185</v>
@@ -4919,11 +4919,11 @@
       <c r="A254" t="s">
         <v>6</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254">
+        <v>2017</v>
+      </c>
+      <c r="C254" t="s">
         <v>102</v>
-      </c>
-      <c r="D254">
-        <v>2017</v>
       </c>
       <c r="E254" t="s">
         <v>142</v>
@@ -4933,11 +4933,11 @@
       <c r="A255" t="s">
         <v>7</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255">
+        <v>2017</v>
+      </c>
+      <c r="C255" t="s">
         <v>73</v>
-      </c>
-      <c r="D255">
-        <v>2017</v>
       </c>
       <c r="E255" t="s">
         <v>65</v>
@@ -4947,11 +4947,11 @@
       <c r="A256" t="s">
         <v>7</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256">
+        <v>2017</v>
+      </c>
+      <c r="C256" t="s">
         <v>41</v>
-      </c>
-      <c r="D256">
-        <v>2017</v>
       </c>
       <c r="E256" t="s">
         <v>63</v>
@@ -4964,14 +4964,14 @@
       <c r="A257" t="s">
         <v>7</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257">
+        <v>2017</v>
+      </c>
+      <c r="C257" t="s">
         <v>42</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>41</v>
-      </c>
-      <c r="D257">
-        <v>2017</v>
       </c>
       <c r="E257" t="s">
         <v>65</v>
@@ -4981,11 +4981,11 @@
       <c r="A258" t="s">
         <v>7</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258">
+        <v>2017</v>
+      </c>
+      <c r="C258" t="s">
         <v>73</v>
-      </c>
-      <c r="D258">
-        <v>2017</v>
       </c>
       <c r="E258" t="s">
         <v>167</v>
@@ -4995,11 +4995,11 @@
       <c r="A259" t="s">
         <v>7</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259">
+        <v>2017</v>
+      </c>
+      <c r="C259" t="s">
         <v>104</v>
-      </c>
-      <c r="D259">
-        <v>2017</v>
       </c>
       <c r="E259" t="s">
         <v>91</v>
@@ -5009,11 +5009,11 @@
       <c r="A260" t="s">
         <v>7</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260">
+        <v>2017</v>
+      </c>
+      <c r="C260" t="s">
         <v>91</v>
-      </c>
-      <c r="D260">
-        <v>2017</v>
       </c>
       <c r="E260" t="s">
         <v>82</v>
@@ -5023,11 +5023,11 @@
       <c r="A261" t="s">
         <v>7</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261">
+        <v>2017</v>
+      </c>
+      <c r="C261" t="s">
         <v>67</v>
-      </c>
-      <c r="D261">
-        <v>2017</v>
       </c>
       <c r="E261" t="s">
         <v>67</v>
@@ -5037,11 +5037,11 @@
       <c r="A262" t="s">
         <v>7</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>2017</v>
+      </c>
+      <c r="C262" t="s">
         <v>83</v>
-      </c>
-      <c r="D262">
-        <v>2017</v>
       </c>
       <c r="E262" t="s">
         <v>68</v>
@@ -5054,14 +5054,14 @@
       <c r="A263" t="s">
         <v>7</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263">
+        <v>2017</v>
+      </c>
+      <c r="C263" t="s">
         <v>68</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>108</v>
-      </c>
-      <c r="D263">
-        <v>2017</v>
       </c>
       <c r="E263" t="s">
         <v>68</v>
@@ -5074,14 +5074,14 @@
       <c r="A264" t="s">
         <v>7</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264">
+        <v>2017</v>
+      </c>
+      <c r="C264" t="s">
         <v>68</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>108</v>
-      </c>
-      <c r="D264">
-        <v>2017</v>
       </c>
       <c r="E264" t="s">
         <v>192</v>
@@ -5094,11 +5094,11 @@
       <c r="A265" t="s">
         <v>7</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265">
+        <v>2017</v>
+      </c>
+      <c r="C265" t="s">
         <v>67</v>
-      </c>
-      <c r="D265">
-        <v>2017</v>
       </c>
       <c r="E265" t="s">
         <v>67</v>
@@ -5108,11 +5108,11 @@
       <c r="A266" t="s">
         <v>7</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266">
+        <v>2017</v>
+      </c>
+      <c r="C266" t="s">
         <v>27</v>
-      </c>
-      <c r="D266">
-        <v>2017</v>
       </c>
       <c r="E266" t="s">
         <v>68</v>
@@ -5122,11 +5122,11 @@
       <c r="A267" t="s">
         <v>7</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267">
+        <v>2017</v>
+      </c>
+      <c r="C267" t="s">
         <v>68</v>
-      </c>
-      <c r="D267">
-        <v>2017</v>
       </c>
       <c r="E267" t="s">
         <v>83</v>
@@ -5136,11 +5136,11 @@
       <c r="A268" t="s">
         <v>7</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268">
+        <v>2017</v>
+      </c>
+      <c r="C268" t="s">
         <v>105</v>
-      </c>
-      <c r="D268">
-        <v>2017</v>
       </c>
       <c r="E268" t="s">
         <v>84</v>
@@ -5150,11 +5150,11 @@
       <c r="A269" t="s">
         <v>7</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269">
+        <v>2017</v>
+      </c>
+      <c r="C269" t="s">
         <v>106</v>
-      </c>
-      <c r="D269">
-        <v>2017</v>
       </c>
       <c r="E269" t="s">
         <v>72</v>
@@ -5164,14 +5164,14 @@
       <c r="A270" t="s">
         <v>7</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270">
+        <v>2017</v>
+      </c>
+      <c r="C270" t="s">
         <v>24</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>97</v>
-      </c>
-      <c r="D270">
-        <v>2017</v>
       </c>
       <c r="E270" t="s">
         <v>51</v>
@@ -5184,11 +5184,11 @@
       <c r="A271" t="s">
         <v>7</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271">
+        <v>2017</v>
+      </c>
+      <c r="C271" t="s">
         <v>24</v>
-      </c>
-      <c r="D271">
-        <v>2017</v>
       </c>
       <c r="E271" t="s">
         <v>72</v>
@@ -5198,11 +5198,11 @@
       <c r="A272" t="s">
         <v>7</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272">
+        <v>2017</v>
+      </c>
+      <c r="C272" t="s">
         <v>106</v>
-      </c>
-      <c r="D272">
-        <v>2017</v>
       </c>
       <c r="E272" t="s">
         <v>84</v>
@@ -5212,11 +5212,11 @@
       <c r="A273" t="s">
         <v>7</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273">
+        <v>2017</v>
+      </c>
+      <c r="C273" t="s">
         <v>58</v>
-      </c>
-      <c r="D273">
-        <v>2017</v>
       </c>
       <c r="E273" t="s">
         <v>112</v>
@@ -5226,11 +5226,11 @@
       <c r="A274" t="s">
         <v>7</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274">
+        <v>2017</v>
+      </c>
+      <c r="C274" t="s">
         <v>59</v>
-      </c>
-      <c r="D274">
-        <v>2017</v>
       </c>
       <c r="E274" t="s">
         <v>101</v>
@@ -5240,14 +5240,14 @@
       <c r="A275" t="s">
         <v>7</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275">
+        <v>2017</v>
+      </c>
+      <c r="C275" t="s">
         <v>59</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>107</v>
-      </c>
-      <c r="D275">
-        <v>2017</v>
       </c>
       <c r="E275" t="s">
         <v>101</v>
@@ -5260,11 +5260,11 @@
       <c r="A276" t="s">
         <v>7</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276">
+        <v>2017</v>
+      </c>
+      <c r="C276" t="s">
         <v>36</v>
-      </c>
-      <c r="D276">
-        <v>2017</v>
       </c>
       <c r="E276" t="s">
         <v>194</v>
@@ -5274,11 +5274,11 @@
       <c r="A277" t="s">
         <v>7</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277">
+        <v>2017</v>
+      </c>
+      <c r="C277" t="s">
         <v>107</v>
-      </c>
-      <c r="D277">
-        <v>2017</v>
       </c>
       <c r="E277" t="s">
         <v>112</v>
@@ -5288,11 +5288,11 @@
       <c r="A278" t="s">
         <v>8</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278">
+        <v>2017</v>
+      </c>
+      <c r="C278" t="s">
         <v>65</v>
-      </c>
-      <c r="D278">
-        <v>2017</v>
       </c>
       <c r="E278" t="s">
         <v>128</v>
@@ -5302,11 +5302,11 @@
       <c r="A279" t="s">
         <v>8</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279">
+        <v>2017</v>
+      </c>
+      <c r="C279" t="s">
         <v>64</v>
-      </c>
-      <c r="D279">
-        <v>2017</v>
       </c>
       <c r="E279" t="s">
         <v>67</v>
@@ -5316,11 +5316,11 @@
       <c r="A280" t="s">
         <v>8</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280">
+        <v>2017</v>
+      </c>
+      <c r="C280" t="s">
         <v>67</v>
-      </c>
-      <c r="D280">
-        <v>2017</v>
       </c>
       <c r="E280" t="s">
         <v>63</v>
@@ -5333,14 +5333,14 @@
       <c r="A281" t="s">
         <v>8</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281">
+        <v>2017</v>
+      </c>
+      <c r="C281" t="s">
         <v>108</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>91</v>
-      </c>
-      <c r="D281">
-        <v>2017</v>
       </c>
       <c r="E281" t="s">
         <v>108</v>
@@ -5353,14 +5353,14 @@
       <c r="A282" t="s">
         <v>8</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282">
+        <v>2017</v>
+      </c>
+      <c r="C282" t="s">
         <v>108</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>91</v>
-      </c>
-      <c r="D282">
-        <v>2017</v>
       </c>
       <c r="E282" t="s">
         <v>108</v>
@@ -5373,11 +5373,11 @@
       <c r="A283" t="s">
         <v>8</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283">
+        <v>2017</v>
+      </c>
+      <c r="C283" t="s">
         <v>65</v>
-      </c>
-      <c r="D283">
-        <v>2017</v>
       </c>
       <c r="E283" t="s">
         <v>67</v>
@@ -5387,11 +5387,11 @@
       <c r="A284" t="s">
         <v>8</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284">
+        <v>2017</v>
+      </c>
+      <c r="C284" t="s">
         <v>67</v>
-      </c>
-      <c r="D284">
-        <v>2017</v>
       </c>
       <c r="E284" t="s">
         <v>64</v>
@@ -5401,11 +5401,11 @@
       <c r="A285" t="s">
         <v>8</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285">
+        <v>2017</v>
+      </c>
+      <c r="C285" t="s">
         <v>91</v>
-      </c>
-      <c r="D285">
-        <v>2017</v>
       </c>
       <c r="E285" t="s">
         <v>91</v>
@@ -5415,11 +5415,11 @@
       <c r="A286" t="s">
         <v>8</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286">
+        <v>2017</v>
+      </c>
+      <c r="C286" t="s">
         <v>105</v>
-      </c>
-      <c r="D286">
-        <v>2017</v>
       </c>
       <c r="E286" t="s">
         <v>36</v>
@@ -5429,11 +5429,11 @@
       <c r="A287" t="s">
         <v>8</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287">
+        <v>2017</v>
+      </c>
+      <c r="C287" t="s">
         <v>23</v>
-      </c>
-      <c r="D287">
-        <v>2017</v>
       </c>
       <c r="E287" t="s">
         <v>119</v>
@@ -5443,14 +5443,14 @@
       <c r="A288" t="s">
         <v>8</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288">
+        <v>2017</v>
+      </c>
+      <c r="C288" t="s">
         <v>96</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>97</v>
-      </c>
-      <c r="D288">
-        <v>2017</v>
       </c>
       <c r="E288" t="s">
         <v>37</v>
@@ -5463,11 +5463,11 @@
       <c r="A289" t="s">
         <v>8</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289">
+        <v>2017</v>
+      </c>
+      <c r="C289" t="s">
         <v>23</v>
-      </c>
-      <c r="D289">
-        <v>2017</v>
       </c>
       <c r="E289" t="s">
         <v>36</v>
@@ -5477,11 +5477,11 @@
       <c r="A290" t="s">
         <v>9</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290">
+        <v>2017</v>
+      </c>
+      <c r="C290" t="s">
         <v>105</v>
-      </c>
-      <c r="D290">
-        <v>2017</v>
       </c>
       <c r="E290" t="s">
         <v>65</v>
@@ -5491,11 +5491,11 @@
       <c r="A291" t="s">
         <v>9</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291">
+        <v>2017</v>
+      </c>
+      <c r="C291" t="s">
         <v>23</v>
-      </c>
-      <c r="D291">
-        <v>2017</v>
       </c>
       <c r="E291" t="s">
         <v>64</v>
@@ -5505,14 +5505,14 @@
       <c r="A292" t="s">
         <v>9</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292">
+        <v>2017</v>
+      </c>
+      <c r="C292" t="s">
         <v>22</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>96</v>
-      </c>
-      <c r="D292">
-        <v>2017</v>
       </c>
       <c r="E292" t="s">
         <v>63</v>
@@ -5525,11 +5525,11 @@
       <c r="A293" t="s">
         <v>9</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293">
+        <v>2017</v>
+      </c>
+      <c r="C293" t="s">
         <v>23</v>
-      </c>
-      <c r="D293">
-        <v>2017</v>
       </c>
       <c r="E293" t="s">
         <v>65</v>
@@ -5539,11 +5539,11 @@
       <c r="A294" t="s">
         <v>9</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294">
+        <v>2017</v>
+      </c>
+      <c r="C294" t="s">
         <v>105</v>
-      </c>
-      <c r="D294">
-        <v>2017</v>
       </c>
       <c r="E294" t="s">
         <v>64</v>
@@ -5553,11 +5553,11 @@
       <c r="A295" t="s">
         <v>6</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295">
+        <v>2018</v>
+      </c>
+      <c r="C295" t="s">
         <v>109</v>
-      </c>
-      <c r="D295">
-        <v>2018</v>
       </c>
       <c r="E295" t="s">
         <v>173</v>
@@ -5567,11 +5567,11 @@
       <c r="A296" t="s">
         <v>6</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296">
+        <v>2018</v>
+      </c>
+      <c r="C296" t="s">
         <v>22</v>
-      </c>
-      <c r="D296">
-        <v>2018</v>
       </c>
       <c r="E296" t="s">
         <v>171</v>
@@ -5581,14 +5581,14 @@
       <c r="A297" t="s">
         <v>6</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297">
+        <v>2018</v>
+      </c>
+      <c r="C297" t="s">
         <v>96</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>97</v>
-      </c>
-      <c r="D297">
-        <v>2018</v>
       </c>
       <c r="E297" t="s">
         <v>171</v>
@@ -5601,11 +5601,11 @@
       <c r="A298" t="s">
         <v>6</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298">
+        <v>2018</v>
+      </c>
+      <c r="C298" t="s">
         <v>109</v>
-      </c>
-      <c r="D298">
-        <v>2018</v>
       </c>
       <c r="E298" t="s">
         <v>171</v>
@@ -5615,11 +5615,11 @@
       <c r="A299" t="s">
         <v>6</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299">
+        <v>2018</v>
+      </c>
+      <c r="C299" t="s">
         <v>39</v>
-      </c>
-      <c r="D299">
-        <v>2018</v>
       </c>
       <c r="E299" t="s">
         <v>40</v>
@@ -5629,11 +5629,11 @@
       <c r="A300" t="s">
         <v>6</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300">
+        <v>2018</v>
+      </c>
+      <c r="C300" t="s">
         <v>110</v>
-      </c>
-      <c r="D300">
-        <v>2018</v>
       </c>
       <c r="E300" t="s">
         <v>41</v>
@@ -5643,14 +5643,14 @@
       <c r="A301" t="s">
         <v>6</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301">
+        <v>2018</v>
+      </c>
+      <c r="C301" t="s">
         <v>111</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>156</v>
-      </c>
-      <c r="D301">
-        <v>2018</v>
       </c>
       <c r="E301" t="s">
         <v>42</v>
@@ -5663,11 +5663,11 @@
       <c r="A302" t="s">
         <v>6</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302">
+        <v>2018</v>
+      </c>
+      <c r="C302" t="s">
         <v>110</v>
-      </c>
-      <c r="D302">
-        <v>2018</v>
       </c>
       <c r="E302" t="s">
         <v>40</v>
@@ -5677,11 +5677,11 @@
       <c r="A303" t="s">
         <v>6</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303">
+        <v>2018</v>
+      </c>
+      <c r="C303" t="s">
         <v>112</v>
-      </c>
-      <c r="D303">
-        <v>2018</v>
       </c>
       <c r="E303" t="s">
         <v>195</v>
@@ -5691,11 +5691,11 @@
       <c r="A304" t="s">
         <v>6</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304">
+        <v>2018</v>
+      </c>
+      <c r="C304" t="s">
         <v>102</v>
-      </c>
-      <c r="D304">
-        <v>2018</v>
       </c>
       <c r="E304" t="s">
         <v>134</v>
@@ -5705,14 +5705,14 @@
       <c r="A305" t="s">
         <v>6</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305">
+        <v>2018</v>
+      </c>
+      <c r="C305" t="s">
         <v>101</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>103</v>
-      </c>
-      <c r="D305">
-        <v>2018</v>
       </c>
       <c r="E305" t="s">
         <v>51</v>
@@ -5725,11 +5725,11 @@
       <c r="A306" t="s">
         <v>6</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306">
+        <v>2018</v>
+      </c>
+      <c r="C306" t="s">
         <v>112</v>
-      </c>
-      <c r="D306">
-        <v>2018</v>
       </c>
       <c r="E306" t="s">
         <v>134</v>
@@ -5739,11 +5739,11 @@
       <c r="A307" t="s">
         <v>6</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307">
+        <v>2018</v>
+      </c>
+      <c r="C307" t="s">
         <v>113</v>
-      </c>
-      <c r="D307">
-        <v>2018</v>
       </c>
       <c r="E307" t="s">
         <v>79</v>
@@ -5753,11 +5753,11 @@
       <c r="A308" t="s">
         <v>6</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308">
+        <v>2018</v>
+      </c>
+      <c r="C308" t="s">
         <v>67</v>
-      </c>
-      <c r="D308">
-        <v>2018</v>
       </c>
       <c r="E308" t="s">
         <v>47</v>
@@ -5767,14 +5767,14 @@
       <c r="A309" t="s">
         <v>6</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309">
+        <v>2018</v>
+      </c>
+      <c r="C309" t="s">
         <v>114</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>108</v>
-      </c>
-      <c r="D309">
-        <v>2018</v>
       </c>
       <c r="E309" t="s">
         <v>170</v>
@@ -5787,11 +5787,11 @@
       <c r="A310" t="s">
         <v>6</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310">
+        <v>2018</v>
+      </c>
+      <c r="C310" t="s">
         <v>67</v>
-      </c>
-      <c r="D310">
-        <v>2018</v>
       </c>
       <c r="E310" t="s">
         <v>79</v>
@@ -5801,11 +5801,11 @@
       <c r="A311" t="s">
         <v>6</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311">
+        <v>2018</v>
+      </c>
+      <c r="C311" t="s">
         <v>115</v>
-      </c>
-      <c r="D311">
-        <v>2018</v>
       </c>
       <c r="E311" t="s">
         <v>93</v>
@@ -5815,11 +5815,11 @@
       <c r="A312" t="s">
         <v>6</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312">
+        <v>2018</v>
+      </c>
+      <c r="C312" t="s">
         <v>32</v>
-      </c>
-      <c r="D312">
-        <v>2018</v>
       </c>
       <c r="E312" t="s">
         <v>196</v>
@@ -5829,14 +5829,14 @@
       <c r="A313" t="s">
         <v>6</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313">
+        <v>2018</v>
+      </c>
+      <c r="C313" t="s">
         <v>116</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
         <v>55</v>
-      </c>
-      <c r="D313">
-        <v>2018</v>
       </c>
       <c r="E313" t="s">
         <v>197</v>
@@ -5849,11 +5849,11 @@
       <c r="A314" t="s">
         <v>6</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314">
+        <v>2018</v>
+      </c>
+      <c r="C314" t="s">
         <v>117</v>
-      </c>
-      <c r="D314">
-        <v>2018</v>
       </c>
       <c r="E314" t="s">
         <v>197</v>
@@ -5863,11 +5863,11 @@
       <c r="A315" t="s">
         <v>6</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315">
+        <v>2018</v>
+      </c>
+      <c r="C315" t="s">
         <v>115</v>
-      </c>
-      <c r="D315">
-        <v>2018</v>
       </c>
       <c r="E315" t="s">
         <v>196</v>
@@ -5877,11 +5877,11 @@
       <c r="A316" t="s">
         <v>6</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316">
+        <v>2018</v>
+      </c>
+      <c r="C316" t="s">
         <v>85</v>
-      </c>
-      <c r="D316">
-        <v>2018</v>
       </c>
       <c r="E316" t="s">
         <v>61</v>
@@ -5891,11 +5891,11 @@
       <c r="A317" t="s">
         <v>6</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317">
+        <v>2018</v>
+      </c>
+      <c r="C317" t="s">
         <v>118</v>
-      </c>
-      <c r="D317">
-        <v>2018</v>
       </c>
       <c r="E317" t="s">
         <v>133</v>
@@ -5905,14 +5905,14 @@
       <c r="A318" t="s">
         <v>6</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318">
+        <v>2018</v>
+      </c>
+      <c r="C318" t="s">
         <v>86</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>125</v>
-      </c>
-      <c r="D318">
-        <v>2018</v>
       </c>
       <c r="E318" t="s">
         <v>62</v>
@@ -5925,11 +5925,11 @@
       <c r="A319" t="s">
         <v>6</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319">
+        <v>2018</v>
+      </c>
+      <c r="C319" t="s">
         <v>85</v>
-      </c>
-      <c r="D319">
-        <v>2018</v>
       </c>
       <c r="E319" t="s">
         <v>133</v>
@@ -5939,11 +5939,11 @@
       <c r="A320" t="s">
         <v>6</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320">
+        <v>2018</v>
+      </c>
+      <c r="C320" t="s">
         <v>119</v>
-      </c>
-      <c r="D320">
-        <v>2018</v>
       </c>
       <c r="E320" t="s">
         <v>27</v>
@@ -5953,11 +5953,11 @@
       <c r="A321" t="s">
         <v>6</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321">
+        <v>2018</v>
+      </c>
+      <c r="C321" t="s">
         <v>36</v>
-      </c>
-      <c r="D321">
-        <v>2018</v>
       </c>
       <c r="E321" t="s">
         <v>83</v>
@@ -5967,14 +5967,14 @@
       <c r="A322" t="s">
         <v>6</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322">
+        <v>2018</v>
+      </c>
+      <c r="C322" t="s">
         <v>120</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>166</v>
-      </c>
-      <c r="D322">
-        <v>2018</v>
       </c>
       <c r="E322" t="s">
         <v>126</v>
@@ -5987,11 +5987,11 @@
       <c r="A323" t="s">
         <v>6</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323">
+        <v>2018</v>
+      </c>
+      <c r="C323" t="s">
         <v>121</v>
-      </c>
-      <c r="D323">
-        <v>2018</v>
       </c>
       <c r="E323" t="s">
         <v>192</v>
@@ -6001,11 +6001,11 @@
       <c r="A324" t="s">
         <v>6</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324">
+        <v>2018</v>
+      </c>
+      <c r="C324" t="s">
         <v>63</v>
-      </c>
-      <c r="D324">
-        <v>2018</v>
       </c>
       <c r="E324" t="s">
         <v>198</v>
@@ -6015,11 +6015,11 @@
       <c r="A325" t="s">
         <v>6</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325">
+        <v>2018</v>
+      </c>
+      <c r="C325" t="s">
         <v>65</v>
-      </c>
-      <c r="D325">
-        <v>2018</v>
       </c>
       <c r="E325" t="s">
         <v>199</v>
@@ -6029,14 +6029,14 @@
       <c r="A326" t="s">
         <v>6</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326">
+        <v>2018</v>
+      </c>
+      <c r="C326" t="s">
         <v>63</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>167</v>
-      </c>
-      <c r="D326">
-        <v>2018</v>
       </c>
       <c r="E326" t="s">
         <v>199</v>
@@ -6049,11 +6049,11 @@
       <c r="A327" t="s">
         <v>6</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327">
+        <v>2018</v>
+      </c>
+      <c r="C327" t="s">
         <v>65</v>
-      </c>
-      <c r="D327">
-        <v>2018</v>
       </c>
       <c r="E327" t="s">
         <v>198</v>
@@ -6063,11 +6063,11 @@
       <c r="A328" t="s">
         <v>6</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328">
+        <v>2018</v>
+      </c>
+      <c r="C328" t="s">
         <v>122</v>
-      </c>
-      <c r="D328">
-        <v>2018</v>
       </c>
       <c r="E328" t="s">
         <v>200</v>
@@ -6077,11 +6077,11 @@
       <c r="A329" t="s">
         <v>7</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329">
+        <v>2018</v>
+      </c>
+      <c r="C329" t="s">
         <v>41</v>
-      </c>
-      <c r="D329">
-        <v>2018</v>
       </c>
       <c r="E329" t="s">
         <v>105</v>
@@ -6091,11 +6091,11 @@
       <c r="A330" t="s">
         <v>7</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330">
+        <v>2018</v>
+      </c>
+      <c r="C330" t="s">
         <v>40</v>
-      </c>
-      <c r="D330">
-        <v>2018</v>
       </c>
       <c r="E330" t="s">
         <v>106</v>
@@ -6105,14 +6105,14 @@
       <c r="A331" t="s">
         <v>7</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331">
+        <v>2018</v>
+      </c>
+      <c r="C331" t="s">
         <v>42</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>40</v>
-      </c>
-      <c r="D331">
-        <v>2018</v>
       </c>
       <c r="E331" t="s">
         <v>96</v>
@@ -6125,11 +6125,11 @@
       <c r="A332" t="s">
         <v>7</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332">
+        <v>2018</v>
+      </c>
+      <c r="C332" t="s">
         <v>40</v>
-      </c>
-      <c r="D332">
-        <v>2018</v>
       </c>
       <c r="E332" t="s">
         <v>105</v>
@@ -6139,11 +6139,11 @@
       <c r="A333" t="s">
         <v>7</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333">
+        <v>2018</v>
+      </c>
+      <c r="C333" t="s">
         <v>123</v>
-      </c>
-      <c r="D333">
-        <v>2018</v>
       </c>
       <c r="E333" t="s">
         <v>79</v>
@@ -6153,11 +6153,11 @@
       <c r="A334" t="s">
         <v>7</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334">
+        <v>2018</v>
+      </c>
+      <c r="C334" t="s">
         <v>124</v>
-      </c>
-      <c r="D334">
-        <v>2018</v>
       </c>
       <c r="E334" t="s">
         <v>18</v>
@@ -6167,14 +6167,14 @@
       <c r="A335" t="s">
         <v>7</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335">
+        <v>2018</v>
+      </c>
+      <c r="C335" t="s">
         <v>103</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>165</v>
-      </c>
-      <c r="D335">
-        <v>2018</v>
       </c>
       <c r="E335" t="s">
         <v>170</v>
@@ -6187,11 +6187,11 @@
       <c r="A336" t="s">
         <v>7</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336">
+        <v>2018</v>
+      </c>
+      <c r="C336" t="s">
         <v>124</v>
-      </c>
-      <c r="D336">
-        <v>2018</v>
       </c>
       <c r="E336" t="s">
         <v>79</v>
@@ -6201,11 +6201,11 @@
       <c r="A337" t="s">
         <v>7</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337">
+        <v>2018</v>
+      </c>
+      <c r="C337" t="s">
         <v>123</v>
-      </c>
-      <c r="D337">
-        <v>2018</v>
       </c>
       <c r="E337" t="s">
         <v>18</v>
@@ -6215,11 +6215,11 @@
       <c r="A338" t="s">
         <v>7</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338">
+        <v>2018</v>
+      </c>
+      <c r="C338" t="s">
         <v>86</v>
-      </c>
-      <c r="D338">
-        <v>2018</v>
       </c>
       <c r="E338" t="s">
         <v>115</v>
@@ -6229,11 +6229,11 @@
       <c r="A339" t="s">
         <v>7</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339">
+        <v>2018</v>
+      </c>
+      <c r="C339" t="s">
         <v>85</v>
-      </c>
-      <c r="D339">
-        <v>2018</v>
       </c>
       <c r="E339" t="s">
         <v>32</v>
@@ -6243,14 +6243,14 @@
       <c r="A340" t="s">
         <v>7</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340">
+        <v>2018</v>
+      </c>
+      <c r="C340" t="s">
         <v>125</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>142</v>
-      </c>
-      <c r="D340">
-        <v>2018</v>
       </c>
       <c r="E340" t="s">
         <v>116</v>
@@ -6263,11 +6263,11 @@
       <c r="A341" t="s">
         <v>7</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341">
+        <v>2018</v>
+      </c>
+      <c r="C341" t="s">
         <v>86</v>
-      </c>
-      <c r="D341">
-        <v>2018</v>
       </c>
       <c r="E341" t="s">
         <v>32</v>
@@ -6277,11 +6277,11 @@
       <c r="A342" t="s">
         <v>7</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342">
+        <v>2018</v>
+      </c>
+      <c r="C342" t="s">
         <v>83</v>
-      </c>
-      <c r="D342">
-        <v>2018</v>
       </c>
       <c r="E342" t="s">
         <v>167</v>
@@ -6291,11 +6291,11 @@
       <c r="A343" t="s">
         <v>7</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343">
+        <v>2018</v>
+      </c>
+      <c r="C343" t="s">
         <v>27</v>
-      </c>
-      <c r="D343">
-        <v>2018</v>
       </c>
       <c r="E343" t="s">
         <v>63</v>
@@ -6305,14 +6305,14 @@
       <c r="A344" t="s">
         <v>7</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344">
+        <v>2018</v>
+      </c>
+      <c r="C344" t="s">
         <v>126</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>82</v>
-      </c>
-      <c r="D344">
-        <v>2018</v>
       </c>
       <c r="E344" t="s">
         <v>201</v>
@@ -6325,11 +6325,11 @@
       <c r="A345" t="s">
         <v>7</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345">
+        <v>2018</v>
+      </c>
+      <c r="C345" t="s">
         <v>126</v>
-      </c>
-      <c r="D345">
-        <v>2018</v>
       </c>
       <c r="E345" t="s">
         <v>63</v>
@@ -6339,11 +6339,11 @@
       <c r="A346" t="s">
         <v>8</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346">
+        <v>2018</v>
+      </c>
+      <c r="C346" t="s">
         <v>127</v>
-      </c>
-      <c r="D346">
-        <v>2018</v>
       </c>
       <c r="E346" t="s">
         <v>101</v>
@@ -6353,11 +6353,11 @@
       <c r="A347" t="s">
         <v>8</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347">
+        <v>2018</v>
+      </c>
+      <c r="C347" t="s">
         <v>105</v>
-      </c>
-      <c r="D347">
-        <v>2018</v>
       </c>
       <c r="E347" t="s">
         <v>102</v>
@@ -6367,14 +6367,14 @@
       <c r="A348" t="s">
         <v>8</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348">
+        <v>2018</v>
+      </c>
+      <c r="C348" t="s">
         <v>24</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>97</v>
-      </c>
-      <c r="D348">
-        <v>2018</v>
       </c>
       <c r="E348" t="s">
         <v>202</v>
@@ -6387,11 +6387,11 @@
       <c r="A349" t="s">
         <v>8</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349">
+        <v>2018</v>
+      </c>
+      <c r="C349" t="s">
         <v>22</v>
-      </c>
-      <c r="D349">
-        <v>2018</v>
       </c>
       <c r="E349" t="s">
         <v>112</v>
@@ -6401,11 +6401,11 @@
       <c r="A350" t="s">
         <v>8</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350">
+        <v>2018</v>
+      </c>
+      <c r="C350" t="s">
         <v>97</v>
-      </c>
-      <c r="D350">
-        <v>2018</v>
       </c>
       <c r="E350" t="s">
         <v>202</v>
@@ -6415,11 +6415,11 @@
       <c r="A351" t="s">
         <v>8</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351">
+        <v>2018</v>
+      </c>
+      <c r="C351" t="s">
         <v>85</v>
-      </c>
-      <c r="D351">
-        <v>2018</v>
       </c>
       <c r="E351" t="s">
         <v>192</v>
@@ -6429,11 +6429,11 @@
       <c r="A352" t="s">
         <v>8</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352">
+        <v>2018</v>
+      </c>
+      <c r="C352" t="s">
         <v>86</v>
-      </c>
-      <c r="D352">
-        <v>2018</v>
       </c>
       <c r="E352" t="s">
         <v>203</v>
@@ -6443,14 +6443,14 @@
       <c r="A353" t="s">
         <v>8</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353">
+        <v>2018</v>
+      </c>
+      <c r="C353" t="s">
         <v>125</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>168</v>
-      </c>
-      <c r="D353">
-        <v>2018</v>
       </c>
       <c r="E353" t="s">
         <v>157</v>
@@ -6463,11 +6463,11 @@
       <c r="A354" t="s">
         <v>8</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354">
+        <v>2018</v>
+      </c>
+      <c r="C354" t="s">
         <v>86</v>
-      </c>
-      <c r="D354">
-        <v>2018</v>
       </c>
       <c r="E354" t="s">
         <v>27</v>
@@ -6477,11 +6477,11 @@
       <c r="A355" t="s">
         <v>8</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355">
+        <v>2018</v>
+      </c>
+      <c r="C355" t="s">
         <v>85</v>
-      </c>
-      <c r="D355">
-        <v>2018</v>
       </c>
       <c r="E355" t="s">
         <v>203</v>
@@ -6491,11 +6491,11 @@
       <c r="A356" t="s">
         <v>9</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356">
+        <v>2018</v>
+      </c>
+      <c r="C356" t="s">
         <v>106</v>
-      </c>
-      <c r="D356">
-        <v>2018</v>
       </c>
       <c r="E356" t="s">
         <v>85</v>
@@ -6505,11 +6505,11 @@
       <c r="A357" t="s">
         <v>9</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357">
+        <v>2018</v>
+      </c>
+      <c r="C357" t="s">
         <v>23</v>
-      </c>
-      <c r="D357">
-        <v>2018</v>
       </c>
       <c r="E357" t="s">
         <v>86</v>
@@ -6519,14 +6519,14 @@
       <c r="A358" t="s">
         <v>9</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358">
+        <v>2018</v>
+      </c>
+      <c r="C358" t="s">
         <v>96</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>97</v>
-      </c>
-      <c r="D358">
-        <v>2018</v>
       </c>
       <c r="E358" t="s">
         <v>125</v>
@@ -6539,11 +6539,11 @@
       <c r="A359" t="s">
         <v>9</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359">
+        <v>2018</v>
+      </c>
+      <c r="C359" t="s">
         <v>105</v>
-      </c>
-      <c r="D359">
-        <v>2018</v>
       </c>
       <c r="E359" t="s">
         <v>86</v>
@@ -6553,11 +6553,11 @@
       <c r="A360" t="s">
         <v>10</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360">
+        <v>2019</v>
+      </c>
+      <c r="C360" t="s">
         <v>37</v>
-      </c>
-      <c r="D360">
-        <v>2019</v>
       </c>
       <c r="E360" t="s">
         <v>130</v>
@@ -6567,11 +6567,11 @@
       <c r="A361" t="s">
         <v>10</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361">
+        <v>2019</v>
+      </c>
+      <c r="C361" t="s">
         <v>58</v>
-      </c>
-      <c r="D361">
-        <v>2019</v>
       </c>
       <c r="E361" t="s">
         <v>98</v>
@@ -6581,14 +6581,14 @@
       <c r="A362" t="s">
         <v>10</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362">
+        <v>2019</v>
+      </c>
+      <c r="C362" t="s">
         <v>58</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>59</v>
-      </c>
-      <c r="D362">
-        <v>2019</v>
       </c>
       <c r="E362" t="s">
         <v>98</v>
@@ -6601,11 +6601,11 @@
       <c r="A363" t="s">
         <v>10</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363">
+        <v>2019</v>
+      </c>
+      <c r="C363" t="s">
         <v>128</v>
-      </c>
-      <c r="D363">
-        <v>2019</v>
       </c>
       <c r="E363" t="s">
         <v>61</v>
@@ -6615,11 +6615,11 @@
       <c r="A364" t="s">
         <v>10</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364">
+        <v>2019</v>
+      </c>
+      <c r="C364" t="s">
         <v>113</v>
-      </c>
-      <c r="D364">
-        <v>2019</v>
       </c>
       <c r="E364" t="s">
         <v>133</v>
@@ -6629,14 +6629,14 @@
       <c r="A365" t="s">
         <v>10</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365">
+        <v>2019</v>
+      </c>
+      <c r="C365" t="s">
         <v>108</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>91</v>
-      </c>
-      <c r="D365">
-        <v>2019</v>
       </c>
       <c r="E365" t="s">
         <v>61</v>
@@ -6649,11 +6649,11 @@
       <c r="A366" t="s">
         <v>10</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366">
+        <v>2019</v>
+      </c>
+      <c r="C366" t="s">
         <v>84</v>
-      </c>
-      <c r="D366">
-        <v>2019</v>
       </c>
       <c r="E366" t="s">
         <v>18</v>
@@ -6663,11 +6663,11 @@
       <c r="A367" t="s">
         <v>10</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367">
+        <v>2019</v>
+      </c>
+      <c r="C367" t="s">
         <v>72</v>
-      </c>
-      <c r="D367">
-        <v>2019</v>
       </c>
       <c r="E367" t="s">
         <v>47</v>
@@ -6677,11 +6677,11 @@
       <c r="A368" t="s">
         <v>10</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368">
+        <v>2019</v>
+      </c>
+      <c r="C368" t="s">
         <v>89</v>
-      </c>
-      <c r="D368">
-        <v>2019</v>
       </c>
       <c r="E368" t="s">
         <v>101</v>
@@ -6691,11 +6691,11 @@
       <c r="A369" t="s">
         <v>10</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369">
+        <v>2019</v>
+      </c>
+      <c r="C369" t="s">
         <v>70</v>
-      </c>
-      <c r="D369">
-        <v>2019</v>
       </c>
       <c r="E369" t="s">
         <v>124</v>
@@ -6705,14 +6705,14 @@
       <c r="A370" t="s">
         <v>10</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370">
+        <v>2019</v>
+      </c>
+      <c r="C370" t="s">
         <v>129</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
         <v>56</v>
-      </c>
-      <c r="D370">
-        <v>2019</v>
       </c>
       <c r="E370" t="s">
         <v>202</v>
@@ -6725,11 +6725,11 @@
       <c r="A371" t="s">
         <v>11</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371">
+        <v>2019</v>
+      </c>
+      <c r="C371" t="s">
         <v>130</v>
-      </c>
-      <c r="D371">
-        <v>2019</v>
       </c>
       <c r="E371" t="s">
         <v>61</v>
@@ -6739,11 +6739,11 @@
       <c r="A372" t="s">
         <v>11</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372">
+        <v>2019</v>
+      </c>
+      <c r="C372" t="s">
         <v>98</v>
-      </c>
-      <c r="D372">
-        <v>2019</v>
       </c>
       <c r="E372" t="s">
         <v>133</v>
@@ -6753,14 +6753,14 @@
       <c r="A373" t="s">
         <v>11</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373">
+        <v>2019</v>
+      </c>
+      <c r="C373" t="s">
         <v>98</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>130</v>
-      </c>
-      <c r="D373">
-        <v>2019</v>
       </c>
       <c r="E373" t="s">
         <v>61</v>
@@ -6773,11 +6773,11 @@
       <c r="A374" t="s">
         <v>11</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374">
+        <v>2019</v>
+      </c>
+      <c r="C374" t="s">
         <v>84</v>
-      </c>
-      <c r="D374">
-        <v>2019</v>
       </c>
       <c r="E374" t="s">
         <v>103</v>
@@ -6787,11 +6787,11 @@
       <c r="A375" t="s">
         <v>11</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375">
+        <v>2019</v>
+      </c>
+      <c r="C375" t="s">
         <v>72</v>
-      </c>
-      <c r="D375">
-        <v>2019</v>
       </c>
       <c r="E375" t="s">
         <v>124</v>
@@ -6801,14 +6801,14 @@
       <c r="A376" t="s">
         <v>11</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376">
+        <v>2019</v>
+      </c>
+      <c r="C376" t="s">
         <v>131</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>169</v>
-      </c>
-      <c r="D376">
-        <v>2019</v>
       </c>
       <c r="E376" t="s">
         <v>103</v>
@@ -6821,11 +6821,11 @@
       <c r="A377" t="s">
         <v>12</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377">
+        <v>2019</v>
+      </c>
+      <c r="C377" t="s">
         <v>132</v>
-      </c>
-      <c r="D377">
-        <v>2019</v>
       </c>
       <c r="E377" t="s">
         <v>102</v>
@@ -6835,11 +6835,11 @@
       <c r="A378" t="s">
         <v>12</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378">
+        <v>2019</v>
+      </c>
+      <c r="C378" t="s">
         <v>133</v>
-      </c>
-      <c r="D378">
-        <v>2019</v>
       </c>
       <c r="E378" t="s">
         <v>124</v>
@@ -6849,11 +6849,11 @@
       <c r="A379" t="s">
         <v>10</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379">
+        <v>2021</v>
+      </c>
+      <c r="C379" t="s">
         <v>130</v>
-      </c>
-      <c r="D379">
-        <v>2021</v>
       </c>
       <c r="E379" t="s">
         <v>204</v>
@@ -6863,11 +6863,11 @@
       <c r="A380" t="s">
         <v>10</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380">
+        <v>2021</v>
+      </c>
+      <c r="C380" t="s">
         <v>99</v>
-      </c>
-      <c r="D380">
-        <v>2021</v>
       </c>
       <c r="E380" t="s">
         <v>205</v>
@@ -6877,11 +6877,11 @@
       <c r="A381" t="s">
         <v>10</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381">
+        <v>2021</v>
+      </c>
+      <c r="C381" t="s">
         <v>72</v>
-      </c>
-      <c r="D381">
-        <v>2021</v>
       </c>
       <c r="E381" t="s">
         <v>180</v>
@@ -6891,11 +6891,11 @@
       <c r="A382" t="s">
         <v>10</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382">
+        <v>2021</v>
+      </c>
+      <c r="C382" t="s">
         <v>134</v>
-      </c>
-      <c r="D382">
-        <v>2021</v>
       </c>
       <c r="E382" t="s">
         <v>47</v>
@@ -6905,14 +6905,14 @@
       <c r="A383" t="s">
         <v>10</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383">
+        <v>2021</v>
+      </c>
+      <c r="C383" t="s">
         <v>135</v>
       </c>
-      <c r="C383" t="s">
+      <c r="D383" t="s">
         <v>169</v>
-      </c>
-      <c r="D383">
-        <v>2021</v>
       </c>
       <c r="E383" t="s">
         <v>145</v>
@@ -6925,11 +6925,11 @@
       <c r="A384" t="s">
         <v>10</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384">
+        <v>2021</v>
+      </c>
+      <c r="C384" t="s">
         <v>136</v>
-      </c>
-      <c r="D384">
-        <v>2021</v>
       </c>
       <c r="E384" t="s">
         <v>141</v>
@@ -6939,11 +6939,11 @@
       <c r="A385" t="s">
         <v>10</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385">
+        <v>2021</v>
+      </c>
+      <c r="C385" t="s">
         <v>137</v>
-      </c>
-      <c r="D385">
-        <v>2021</v>
       </c>
       <c r="E385" t="s">
         <v>86</v>
@@ -6953,14 +6953,14 @@
       <c r="A386" t="s">
         <v>10</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386">
+        <v>2021</v>
+      </c>
+      <c r="C386" t="s">
         <v>40</v>
       </c>
-      <c r="C386" t="s">
+      <c r="D386" t="s">
         <v>137</v>
-      </c>
-      <c r="D386">
-        <v>2021</v>
       </c>
       <c r="E386" t="s">
         <v>142</v>
@@ -6973,11 +6973,11 @@
       <c r="A387" t="s">
         <v>10</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387">
+        <v>2021</v>
+      </c>
+      <c r="C387" t="s">
         <v>138</v>
-      </c>
-      <c r="D387">
-        <v>2021</v>
       </c>
       <c r="E387" t="s">
         <v>32</v>
@@ -6987,11 +6987,11 @@
       <c r="A388" t="s">
         <v>10</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388">
+        <v>2021</v>
+      </c>
+      <c r="C388" t="s">
         <v>58</v>
-      </c>
-      <c r="D388">
-        <v>2021</v>
       </c>
       <c r="E388" t="s">
         <v>206</v>
@@ -7001,14 +7001,14 @@
       <c r="A389" t="s">
         <v>10</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389">
+        <v>2021</v>
+      </c>
+      <c r="C389" t="s">
         <v>139</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>58</v>
-      </c>
-      <c r="D389">
-        <v>2021</v>
       </c>
       <c r="E389" t="s">
         <v>33</v>
@@ -7021,11 +7021,11 @@
       <c r="A390" t="s">
         <v>11</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390">
+        <v>2021</v>
+      </c>
+      <c r="C390" t="s">
         <v>130</v>
-      </c>
-      <c r="D390">
-        <v>2021</v>
       </c>
       <c r="E390" t="s">
         <v>207</v>
@@ -7035,11 +7035,11 @@
       <c r="A391" t="s">
         <v>11</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391">
+        <v>2021</v>
+      </c>
+      <c r="C391" t="s">
         <v>99</v>
-      </c>
-      <c r="D391">
-        <v>2021</v>
       </c>
       <c r="E391" t="s">
         <v>47</v>
@@ -7049,14 +7049,14 @@
       <c r="A392" t="s">
         <v>11</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392">
+        <v>2021</v>
+      </c>
+      <c r="C392" t="s">
         <v>140</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" t="s">
         <v>98</v>
-      </c>
-      <c r="D392">
-        <v>2021</v>
       </c>
       <c r="E392" t="s">
         <v>145</v>
@@ -7069,11 +7069,11 @@
       <c r="A393" t="s">
         <v>11</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393">
+        <v>2021</v>
+      </c>
+      <c r="C393" t="s">
         <v>141</v>
-      </c>
-      <c r="D393">
-        <v>2021</v>
       </c>
       <c r="E393" t="s">
         <v>36</v>
@@ -7083,11 +7083,11 @@
       <c r="A394" t="s">
         <v>11</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394">
+        <v>2021</v>
+      </c>
+      <c r="C394" t="s">
         <v>86</v>
-      </c>
-      <c r="D394">
-        <v>2021</v>
       </c>
       <c r="E394" t="s">
         <v>58</v>
@@ -7097,14 +7097,14 @@
       <c r="A395" t="s">
         <v>11</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395">
+        <v>2021</v>
+      </c>
+      <c r="C395" t="s">
         <v>142</v>
       </c>
-      <c r="C395" t="s">
+      <c r="D395" t="s">
         <v>168</v>
-      </c>
-      <c r="D395">
-        <v>2021</v>
       </c>
       <c r="E395" t="s">
         <v>58</v>
@@ -7117,11 +7117,11 @@
       <c r="A396" t="s">
         <v>12</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396">
+        <v>2021</v>
+      </c>
+      <c r="C396" t="s">
         <v>130</v>
-      </c>
-      <c r="D396">
-        <v>2021</v>
       </c>
       <c r="E396" t="s">
         <v>141</v>
@@ -7131,11 +7131,11 @@
       <c r="A397" t="s">
         <v>12</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397">
+        <v>2021</v>
+      </c>
+      <c r="C397" t="s">
         <v>99</v>
-      </c>
-      <c r="D397">
-        <v>2021</v>
       </c>
       <c r="E397" t="s">
         <v>86</v>
@@ -7145,11 +7145,11 @@
       <c r="A398" t="s">
         <v>10</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398">
+        <v>2022</v>
+      </c>
+      <c r="C398" t="s">
         <v>136</v>
-      </c>
-      <c r="D398">
-        <v>2022</v>
       </c>
       <c r="E398" t="s">
         <v>203</v>
@@ -7159,11 +7159,11 @@
       <c r="A399" t="s">
         <v>10</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399">
+        <v>2022</v>
+      </c>
+      <c r="C399" t="s">
         <v>143</v>
-      </c>
-      <c r="D399">
-        <v>2022</v>
       </c>
       <c r="E399" t="s">
         <v>208</v>
@@ -7173,14 +7173,14 @@
       <c r="A400" t="s">
         <v>10</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400">
+        <v>2022</v>
+      </c>
+      <c r="C400" t="s">
         <v>42</v>
       </c>
-      <c r="C400" t="s">
+      <c r="D400" t="s">
         <v>40</v>
-      </c>
-      <c r="D400">
-        <v>2022</v>
       </c>
       <c r="E400" t="s">
         <v>209</v>
@@ -7193,11 +7193,11 @@
       <c r="A401" t="s">
         <v>10</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401">
+        <v>2022</v>
+      </c>
+      <c r="C401" t="s">
         <v>47</v>
-      </c>
-      <c r="D401">
-        <v>2022</v>
       </c>
       <c r="E401" t="s">
         <v>133</v>
@@ -7207,11 +7207,11 @@
       <c r="A402" t="s">
         <v>10</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402">
+        <v>2022</v>
+      </c>
+      <c r="C402" t="s">
         <v>144</v>
-      </c>
-      <c r="D402">
-        <v>2022</v>
       </c>
       <c r="E402" t="s">
         <v>132</v>
@@ -7221,14 +7221,14 @@
       <c r="A403" t="s">
         <v>10</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403">
+        <v>2022</v>
+      </c>
+      <c r="C403" t="s">
         <v>145</v>
       </c>
-      <c r="C403" t="s">
+      <c r="D403" t="s">
         <v>170</v>
-      </c>
-      <c r="D403">
-        <v>2022</v>
       </c>
       <c r="E403" t="s">
         <v>61</v>
@@ -7241,11 +7241,11 @@
       <c r="A404" t="s">
         <v>10</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404">
+        <v>2022</v>
+      </c>
+      <c r="C404" t="s">
         <v>91</v>
-      </c>
-      <c r="D404">
-        <v>2022</v>
       </c>
       <c r="E404" t="s">
         <v>210</v>
@@ -7255,11 +7255,11 @@
       <c r="A405" t="s">
         <v>10</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405">
+        <v>2022</v>
+      </c>
+      <c r="C405" t="s">
         <v>113</v>
-      </c>
-      <c r="D405">
-        <v>2022</v>
       </c>
       <c r="E405" t="s">
         <v>211</v>
@@ -7269,11 +7269,11 @@
       <c r="A406" t="s">
         <v>10</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406">
+        <v>2022</v>
+      </c>
+      <c r="C406" t="s">
         <v>85</v>
-      </c>
-      <c r="D406">
-        <v>2022</v>
       </c>
       <c r="E406" t="s">
         <v>102</v>
@@ -7283,11 +7283,11 @@
       <c r="A407" t="s">
         <v>10</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407">
+        <v>2022</v>
+      </c>
+      <c r="C407" t="s">
         <v>86</v>
-      </c>
-      <c r="D407">
-        <v>2022</v>
       </c>
       <c r="E407" t="s">
         <v>101</v>
@@ -7297,11 +7297,11 @@
       <c r="A408" t="s">
         <v>11</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408">
+        <v>2022</v>
+      </c>
+      <c r="C408" t="s">
         <v>136</v>
-      </c>
-      <c r="D408">
-        <v>2022</v>
       </c>
       <c r="E408" t="s">
         <v>133</v>
@@ -7311,11 +7311,11 @@
       <c r="A409" t="s">
         <v>11</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409">
+        <v>2022</v>
+      </c>
+      <c r="C409" t="s">
         <v>143</v>
-      </c>
-      <c r="D409">
-        <v>2022</v>
       </c>
       <c r="E409" t="s">
         <v>132</v>
@@ -7325,14 +7325,14 @@
       <c r="A410" t="s">
         <v>11</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410">
+        <v>2022</v>
+      </c>
+      <c r="C410" t="s">
         <v>146</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>40</v>
-      </c>
-      <c r="D410">
-        <v>2022</v>
       </c>
       <c r="E410" t="s">
         <v>132</v>
@@ -7345,11 +7345,11 @@
       <c r="A411" t="s">
         <v>11</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411">
+        <v>2022</v>
+      </c>
+      <c r="C411" t="s">
         <v>66</v>
-      </c>
-      <c r="D411">
-        <v>2022</v>
       </c>
       <c r="E411" t="s">
         <v>85</v>
@@ -7359,11 +7359,11 @@
       <c r="A412" t="s">
         <v>11</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412">
+        <v>2022</v>
+      </c>
+      <c r="C412" t="s">
         <v>113</v>
-      </c>
-      <c r="D412">
-        <v>2022</v>
       </c>
       <c r="E412" t="s">
         <v>86</v>
@@ -7373,14 +7373,14 @@
       <c r="A413" t="s">
         <v>11</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413">
+        <v>2022</v>
+      </c>
+      <c r="C413" t="s">
         <v>147</v>
       </c>
-      <c r="C413" t="s">
+      <c r="D413" t="s">
         <v>91</v>
-      </c>
-      <c r="D413">
-        <v>2022</v>
       </c>
       <c r="E413" t="s">
         <v>142</v>
@@ -7393,11 +7393,11 @@
       <c r="A414" t="s">
         <v>12</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414">
+        <v>2022</v>
+      </c>
+      <c r="C414" t="s">
         <v>133</v>
-      </c>
-      <c r="D414">
-        <v>2022</v>
       </c>
       <c r="E414" t="s">
         <v>66</v>
@@ -7407,11 +7407,11 @@
       <c r="A415" t="s">
         <v>12</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415">
+        <v>2022</v>
+      </c>
+      <c r="C415" t="s">
         <v>132</v>
-      </c>
-      <c r="D415">
-        <v>2022</v>
       </c>
       <c r="E415" t="s">
         <v>113</v>
@@ -7421,11 +7421,11 @@
       <c r="A416" t="s">
         <v>10</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416">
+        <v>2023</v>
+      </c>
+      <c r="C416" t="s">
         <v>60</v>
-      </c>
-      <c r="D416">
-        <v>2023</v>
       </c>
       <c r="E416" t="s">
         <v>212</v>
@@ -7435,11 +7435,11 @@
       <c r="A417" t="s">
         <v>10</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417">
+        <v>2023</v>
+      </c>
+      <c r="C417" t="s">
         <v>148</v>
-      </c>
-      <c r="D417">
-        <v>2023</v>
       </c>
       <c r="E417" t="s">
         <v>153</v>
@@ -7449,14 +7449,14 @@
       <c r="A418" t="s">
         <v>10</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418">
+        <v>2023</v>
+      </c>
+      <c r="C418" t="s">
         <v>149</v>
       </c>
-      <c r="C418" t="s">
+      <c r="D418" t="s">
         <v>61</v>
-      </c>
-      <c r="D418">
-        <v>2023</v>
       </c>
       <c r="E418" t="s">
         <v>213</v>
@@ -7469,11 +7469,11 @@
       <c r="A419" t="s">
         <v>10</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419">
+        <v>2023</v>
+      </c>
+      <c r="C419" t="s">
         <v>150</v>
-      </c>
-      <c r="D419">
-        <v>2023</v>
       </c>
       <c r="E419" t="s">
         <v>91</v>
@@ -7483,11 +7483,11 @@
       <c r="A420" t="s">
         <v>10</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420">
+        <v>2023</v>
+      </c>
+      <c r="C420" t="s">
         <v>151</v>
-      </c>
-      <c r="D420">
-        <v>2023</v>
       </c>
       <c r="E420" t="s">
         <v>113</v>
@@ -7497,14 +7497,14 @@
       <c r="A421" t="s">
         <v>10</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421">
+        <v>2023</v>
+      </c>
+      <c r="C421" t="s">
         <v>151</v>
       </c>
-      <c r="C421" t="s">
+      <c r="D421" t="s">
         <v>53</v>
-      </c>
-      <c r="D421">
-        <v>2023</v>
       </c>
       <c r="E421" t="s">
         <v>114</v>
@@ -7517,11 +7517,11 @@
       <c r="A422" t="s">
         <v>10</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422">
+        <v>2023</v>
+      </c>
+      <c r="C422" t="s">
         <v>152</v>
-      </c>
-      <c r="D422">
-        <v>2023</v>
       </c>
       <c r="E422" t="s">
         <v>211</v>
@@ -7531,11 +7531,11 @@
       <c r="A423" t="s">
         <v>10</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423">
+        <v>2023</v>
+      </c>
+      <c r="C423" t="s">
         <v>137</v>
-      </c>
-      <c r="D423">
-        <v>2023</v>
       </c>
       <c r="E423" t="s">
         <v>210</v>
@@ -7545,14 +7545,14 @@
       <c r="A424" t="s">
         <v>10</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424">
+        <v>2023</v>
+      </c>
+      <c r="C424" t="s">
         <v>137</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
         <v>136</v>
-      </c>
-      <c r="D424">
-        <v>2023</v>
       </c>
       <c r="E424" t="s">
         <v>210</v>
@@ -7565,11 +7565,11 @@
       <c r="A425" t="s">
         <v>10</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425">
+        <v>2023</v>
+      </c>
+      <c r="C425" t="s">
         <v>138</v>
-      </c>
-      <c r="D425">
-        <v>2023</v>
       </c>
       <c r="E425" t="s">
         <v>214</v>
@@ -7579,11 +7579,11 @@
       <c r="A426" t="s">
         <v>10</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426">
+        <v>2023</v>
+      </c>
+      <c r="C426" t="s">
         <v>58</v>
-      </c>
-      <c r="D426">
-        <v>2023</v>
       </c>
       <c r="E426" t="s">
         <v>134</v>
@@ -7593,11 +7593,11 @@
       <c r="A427" t="s">
         <v>11</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427">
+        <v>2023</v>
+      </c>
+      <c r="C427" t="s">
         <v>153</v>
-      </c>
-      <c r="D427">
-        <v>2023</v>
       </c>
       <c r="E427" t="s">
         <v>155</v>
@@ -7607,11 +7607,11 @@
       <c r="A428" t="s">
         <v>11</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428">
+        <v>2023</v>
+      </c>
+      <c r="C428" t="s">
         <v>154</v>
-      </c>
-      <c r="D428">
-        <v>2023</v>
       </c>
       <c r="E428" t="s">
         <v>113</v>
@@ -7621,11 +7621,11 @@
       <c r="A429" t="s">
         <v>11</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429">
+        <v>2023</v>
+      </c>
+      <c r="C429" t="s">
         <v>143</v>
-      </c>
-      <c r="D429">
-        <v>2023</v>
       </c>
       <c r="E429" t="s">
         <v>138</v>
@@ -7635,11 +7635,11 @@
       <c r="A430" t="s">
         <v>11</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430">
+        <v>2023</v>
+      </c>
+      <c r="C430" t="s">
         <v>137</v>
-      </c>
-      <c r="D430">
-        <v>2023</v>
       </c>
       <c r="E430" t="s">
         <v>58</v>
@@ -7649,14 +7649,14 @@
       <c r="A431" t="s">
         <v>11</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431">
+        <v>2023</v>
+      </c>
+      <c r="C431" t="s">
         <v>137</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
         <v>136</v>
-      </c>
-      <c r="D431">
-        <v>2023</v>
       </c>
       <c r="E431" t="s">
         <v>58</v>
@@ -7669,11 +7669,11 @@
       <c r="A432" t="s">
         <v>12</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432">
+        <v>2023</v>
+      </c>
+      <c r="C432" t="s">
         <v>155</v>
-      </c>
-      <c r="D432">
-        <v>2023</v>
       </c>
       <c r="E432" t="s">
         <v>152</v>
@@ -7683,11 +7683,11 @@
       <c r="A433" t="s">
         <v>12</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433">
+        <v>2023</v>
+      </c>
+      <c r="C433" t="s">
         <v>113</v>
-      </c>
-      <c r="D433">
-        <v>2023</v>
       </c>
       <c r="E433" t="s">
         <v>137</v>
